--- a/2019_2020_2021_merged_clean.xlsx
+++ b/2019_2020_2021_merged_clean.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Donát\Documents\GitHub\-nkutfel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D8E8DE-38D0-40B1-A8EB-5B1E3597AD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C553B05-7446-43BB-9A1E-FDB8456B73C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1E49D800-1704-41F5-A730-534D6AB798DE}"/>
   </bookViews>
@@ -2472,9 +2472,6 @@
     <t>CMVKPP</t>
   </si>
   <si>
-    <t>UNKOWN</t>
-  </si>
-  <si>
     <t>27,33</t>
   </si>
   <si>
@@ -5431,6 +5428,9 @@
   </si>
   <si>
     <t>Q5EY35</t>
+  </si>
+  <si>
+    <t>UNKNOWN</t>
   </si>
 </sst>
 </file>
@@ -5856,8 +5856,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5401079-D5E0-4007-A9FC-8BFBBA1418F4}">
   <dimension ref="A1:L616"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A554" workbookViewId="0">
-      <selection activeCell="H269" sqref="H269"/>
+    <sheetView tabSelected="1" topLeftCell="A431" workbookViewId="0">
+      <selection activeCell="P438" sqref="P438"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5897,7 +5897,7 @@
         <v>10</v>
       </c>
       <c r="L1" s="2" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
@@ -13403,7 +13403,7 @@
         <v>74</v>
       </c>
       <c r="F199" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G199">
         <v>7</v>
@@ -13412,7 +13412,7 @@
         <v>75</v>
       </c>
       <c r="I199" s="9" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="J199" s="9" t="s">
         <v>764</v>
@@ -13426,10 +13426,10 @@
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
+        <v>813</v>
+      </c>
+      <c r="B200" t="s">
         <v>814</v>
-      </c>
-      <c r="B200" t="s">
-        <v>815</v>
       </c>
       <c r="C200" t="s">
         <v>13</v>
@@ -13450,10 +13450,10 @@
         <v>102</v>
       </c>
       <c r="I200" s="9" t="s">
+        <v>815</v>
+      </c>
+      <c r="J200" s="9" t="s">
         <v>816</v>
-      </c>
-      <c r="J200" s="9" t="s">
-        <v>817</v>
       </c>
       <c r="K200" s="9" t="s">
         <v>718</v>
@@ -13464,10 +13464,10 @@
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
+        <v>817</v>
+      </c>
+      <c r="B201" t="s">
         <v>818</v>
-      </c>
-      <c r="B201" t="s">
-        <v>819</v>
       </c>
       <c r="C201" t="s">
         <v>13</v>
@@ -13488,10 +13488,10 @@
         <v>125</v>
       </c>
       <c r="I201" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="J201" s="9" t="s">
         <v>820</v>
-      </c>
-      <c r="J201" s="9" t="s">
-        <v>821</v>
       </c>
       <c r="K201" s="9" t="s">
         <v>371</v>
@@ -13502,10 +13502,10 @@
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
+        <v>821</v>
+      </c>
+      <c r="B202" t="s">
         <v>822</v>
-      </c>
-      <c r="B202" t="s">
-        <v>823</v>
       </c>
       <c r="C202" t="s">
         <v>13</v>
@@ -13526,7 +13526,7 @@
         <v>102</v>
       </c>
       <c r="I202" s="9" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="J202" s="9" t="s">
         <v>745</v>
@@ -13540,10 +13540,10 @@
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
+        <v>824</v>
+      </c>
+      <c r="B203" t="s">
         <v>825</v>
-      </c>
-      <c r="B203" t="s">
-        <v>826</v>
       </c>
       <c r="C203" t="s">
         <v>14</v>
@@ -13564,13 +13564,13 @@
         <v>75</v>
       </c>
       <c r="I203" s="9" t="s">
+        <v>826</v>
+      </c>
+      <c r="J203" s="9" t="s">
         <v>827</v>
       </c>
-      <c r="J203" s="9" t="s">
+      <c r="K203" s="9" t="s">
         <v>828</v>
-      </c>
-      <c r="K203" s="9" t="s">
-        <v>829</v>
       </c>
       <c r="L203">
         <v>2019</v>
@@ -13578,10 +13578,10 @@
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
+        <v>829</v>
+      </c>
+      <c r="B204" t="s">
         <v>830</v>
-      </c>
-      <c r="B204" t="s">
-        <v>831</v>
       </c>
       <c r="C204" t="s">
         <v>14</v>
@@ -13602,13 +13602,13 @@
         <v>429</v>
       </c>
       <c r="I204" s="9" t="s">
+        <v>831</v>
+      </c>
+      <c r="J204" s="9" t="s">
         <v>832</v>
       </c>
-      <c r="J204" s="9" t="s">
+      <c r="K204" s="9" t="s">
         <v>833</v>
-      </c>
-      <c r="K204" s="9" t="s">
-        <v>834</v>
       </c>
       <c r="L204">
         <v>2019</v>
@@ -13616,10 +13616,10 @@
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
+        <v>834</v>
+      </c>
+      <c r="B205" t="s">
         <v>835</v>
-      </c>
-      <c r="B205" t="s">
-        <v>836</v>
       </c>
       <c r="C205" t="s">
         <v>13</v>
@@ -13640,13 +13640,13 @@
         <v>149</v>
       </c>
       <c r="I205" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="J205" s="9" t="s">
         <v>837</v>
       </c>
-      <c r="J205" s="9" t="s">
+      <c r="K205" s="9" t="s">
         <v>838</v>
-      </c>
-      <c r="K205" s="9" t="s">
-        <v>839</v>
       </c>
       <c r="L205">
         <v>2019</v>
@@ -13654,10 +13654,10 @@
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>839</v>
+      </c>
+      <c r="B206" t="s">
         <v>840</v>
-      </c>
-      <c r="B206" t="s">
-        <v>841</v>
       </c>
       <c r="C206" t="s">
         <v>13</v>
@@ -13678,10 +13678,10 @@
         <v>125</v>
       </c>
       <c r="I206" s="9" t="s">
+        <v>841</v>
+      </c>
+      <c r="J206" s="9" t="s">
         <v>842</v>
-      </c>
-      <c r="J206" s="9" t="s">
-        <v>843</v>
       </c>
       <c r="K206" s="9" t="s">
         <v>653</v>
@@ -13692,10 +13692,10 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>843</v>
+      </c>
+      <c r="B207" t="s">
         <v>844</v>
-      </c>
-      <c r="B207" t="s">
-        <v>845</v>
       </c>
       <c r="C207" t="s">
         <v>13</v>
@@ -13716,10 +13716,10 @@
         <v>149</v>
       </c>
       <c r="I207" s="9" t="s">
+        <v>845</v>
+      </c>
+      <c r="J207" s="9" t="s">
         <v>846</v>
-      </c>
-      <c r="J207" s="9" t="s">
-        <v>847</v>
       </c>
       <c r="K207" s="9" t="s">
         <v>556</v>
@@ -13730,10 +13730,10 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>847</v>
+      </c>
+      <c r="B208" t="s">
         <v>848</v>
-      </c>
-      <c r="B208" t="s">
-        <v>849</v>
       </c>
       <c r="C208" t="s">
         <v>14</v>
@@ -13768,10 +13768,10 @@
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
+        <v>849</v>
+      </c>
+      <c r="B209" t="s">
         <v>850</v>
-      </c>
-      <c r="B209" t="s">
-        <v>851</v>
       </c>
       <c r="C209" t="s">
         <v>13</v>
@@ -13806,10 +13806,10 @@
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
+        <v>851</v>
+      </c>
+      <c r="B210" t="s">
         <v>852</v>
-      </c>
-      <c r="B210" t="s">
-        <v>853</v>
       </c>
       <c r="C210" t="s">
         <v>13</v>
@@ -13844,10 +13844,10 @@
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
+        <v>853</v>
+      </c>
+      <c r="B211" t="s">
         <v>854</v>
-      </c>
-      <c r="B211" t="s">
-        <v>855</v>
       </c>
       <c r="C211" t="s">
         <v>14</v>
@@ -13868,10 +13868,10 @@
         <v>102</v>
       </c>
       <c r="I211" s="9" t="s">
+        <v>855</v>
+      </c>
+      <c r="J211" s="9" t="s">
         <v>856</v>
-      </c>
-      <c r="J211" s="9" t="s">
-        <v>857</v>
       </c>
       <c r="K211" s="9" t="s">
         <v>327</v>
@@ -13882,10 +13882,10 @@
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
+        <v>857</v>
+      </c>
+      <c r="B212" t="s">
         <v>858</v>
-      </c>
-      <c r="B212" t="s">
-        <v>859</v>
       </c>
       <c r="C212" t="s">
         <v>14</v>
@@ -13906,13 +13906,13 @@
         <v>75</v>
       </c>
       <c r="I212" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J212" s="9" t="s">
         <v>610</v>
       </c>
       <c r="K212" s="9" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="L212">
         <v>2019</v>
@@ -13920,10 +13920,10 @@
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
+        <v>861</v>
+      </c>
+      <c r="B213" t="s">
         <v>862</v>
-      </c>
-      <c r="B213" t="s">
-        <v>863</v>
       </c>
       <c r="C213" t="s">
         <v>14</v>
@@ -13944,13 +13944,13 @@
         <v>102</v>
       </c>
       <c r="I213" s="9" t="s">
+        <v>863</v>
+      </c>
+      <c r="J213" s="9" t="s">
         <v>864</v>
       </c>
-      <c r="J213" s="9" t="s">
+      <c r="K213" s="9" t="s">
         <v>865</v>
-      </c>
-      <c r="K213" s="9" t="s">
-        <v>866</v>
       </c>
       <c r="L213">
         <v>2019</v>
@@ -13958,10 +13958,10 @@
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
+        <v>866</v>
+      </c>
+      <c r="B214" t="s">
         <v>867</v>
-      </c>
-      <c r="B214" t="s">
-        <v>868</v>
       </c>
       <c r="C214" t="s">
         <v>13</v>
@@ -13988,7 +13988,7 @@
         <v>538</v>
       </c>
       <c r="K214" s="9" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="L214">
         <v>2019</v>
@@ -13996,10 +13996,10 @@
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
+        <v>869</v>
+      </c>
+      <c r="B215" t="s">
         <v>870</v>
-      </c>
-      <c r="B215" t="s">
-        <v>871</v>
       </c>
       <c r="C215" t="s">
         <v>13</v>
@@ -14020,13 +14020,13 @@
         <v>125</v>
       </c>
       <c r="I215" s="9" t="s">
+        <v>871</v>
+      </c>
+      <c r="J215" s="9" t="s">
         <v>872</v>
       </c>
-      <c r="J215" s="9" t="s">
+      <c r="K215" s="9" t="s">
         <v>873</v>
-      </c>
-      <c r="K215" s="9" t="s">
-        <v>874</v>
       </c>
       <c r="L215">
         <v>2019</v>
@@ -14034,10 +14034,10 @@
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
+        <v>874</v>
+      </c>
+      <c r="B216" t="s">
         <v>875</v>
-      </c>
-      <c r="B216" t="s">
-        <v>876</v>
       </c>
       <c r="C216" t="s">
         <v>14</v>
@@ -14058,7 +14058,7 @@
         <v>776</v>
       </c>
       <c r="I216" s="9" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="J216" s="9" t="s">
         <v>586</v>
@@ -14072,10 +14072,10 @@
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
+        <v>877</v>
+      </c>
+      <c r="B217" t="s">
         <v>878</v>
-      </c>
-      <c r="B217" t="s">
-        <v>879</v>
       </c>
       <c r="C217" t="s">
         <v>13</v>
@@ -14096,10 +14096,10 @@
         <v>102</v>
       </c>
       <c r="I217" s="9" t="s">
+        <v>879</v>
+      </c>
+      <c r="J217" s="9" t="s">
         <v>880</v>
-      </c>
-      <c r="J217" s="9" t="s">
-        <v>881</v>
       </c>
       <c r="K217" s="9" t="s">
         <v>632</v>
@@ -14110,10 +14110,10 @@
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
+        <v>881</v>
+      </c>
+      <c r="B218" t="s">
         <v>882</v>
-      </c>
-      <c r="B218" t="s">
-        <v>883</v>
       </c>
       <c r="C218" t="s">
         <v>13</v>
@@ -14134,10 +14134,10 @@
         <v>429</v>
       </c>
       <c r="I218" s="9" t="s">
+        <v>836</v>
+      </c>
+      <c r="J218" s="9" t="s">
         <v>837</v>
-      </c>
-      <c r="J218" s="9" t="s">
-        <v>838</v>
       </c>
       <c r="K218" s="9" t="s">
         <v>754</v>
@@ -14148,10 +14148,10 @@
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
+        <v>883</v>
+      </c>
+      <c r="B219" t="s">
         <v>884</v>
-      </c>
-      <c r="B219" t="s">
-        <v>885</v>
       </c>
       <c r="C219" t="s">
         <v>13</v>
@@ -14172,10 +14172,10 @@
         <v>36</v>
       </c>
       <c r="I219" s="9" t="s">
+        <v>885</v>
+      </c>
+      <c r="J219" s="9" t="s">
         <v>886</v>
-      </c>
-      <c r="J219" s="9" t="s">
-        <v>887</v>
       </c>
       <c r="K219" s="9" t="s">
         <v>326</v>
@@ -14186,10 +14186,10 @@
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
+        <v>887</v>
+      </c>
+      <c r="B220" t="s">
         <v>888</v>
-      </c>
-      <c r="B220" t="s">
-        <v>889</v>
       </c>
       <c r="C220" t="s">
         <v>14</v>
@@ -14210,10 +14210,10 @@
         <v>17</v>
       </c>
       <c r="I220" s="9" t="s">
+        <v>889</v>
+      </c>
+      <c r="J220" s="9" t="s">
         <v>890</v>
-      </c>
-      <c r="J220" s="9" t="s">
-        <v>891</v>
       </c>
       <c r="K220" s="9" t="s">
         <v>390</v>
@@ -14224,10 +14224,10 @@
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
+        <v>891</v>
+      </c>
+      <c r="B221" t="s">
         <v>892</v>
-      </c>
-      <c r="B221" t="s">
-        <v>893</v>
       </c>
       <c r="C221" t="s">
         <v>14</v>
@@ -14254,7 +14254,7 @@
         <v>688</v>
       </c>
       <c r="K221" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L221">
         <v>2019</v>
@@ -14262,10 +14262,10 @@
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A222" t="s">
+        <v>893</v>
+      </c>
+      <c r="B222" t="s">
         <v>894</v>
-      </c>
-      <c r="B222" t="s">
-        <v>895</v>
       </c>
       <c r="C222" t="s">
         <v>14</v>
@@ -14286,10 +14286,10 @@
         <v>125</v>
       </c>
       <c r="I222" s="9" t="s">
+        <v>895</v>
+      </c>
+      <c r="J222" s="9" t="s">
         <v>896</v>
-      </c>
-      <c r="J222" s="9" t="s">
-        <v>897</v>
       </c>
       <c r="K222" s="9" t="s">
         <v>534</v>
@@ -14300,10 +14300,10 @@
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
+        <v>897</v>
+      </c>
+      <c r="B223" t="s">
         <v>898</v>
-      </c>
-      <c r="B223" t="s">
-        <v>899</v>
       </c>
       <c r="C223" t="s">
         <v>13</v>
@@ -14324,13 +14324,13 @@
         <v>429</v>
       </c>
       <c r="I223" s="9" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="J223" s="9" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="K223" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="L223">
         <v>2019</v>
@@ -14338,10 +14338,10 @@
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
+        <v>900</v>
+      </c>
+      <c r="B224" t="s">
         <v>901</v>
-      </c>
-      <c r="B224" t="s">
-        <v>902</v>
       </c>
       <c r="C224" t="s">
         <v>13</v>
@@ -14362,10 +14362,10 @@
         <v>75</v>
       </c>
       <c r="I224" s="9" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="J224" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="K224" s="9" t="s">
         <v>487</v>
@@ -14376,10 +14376,10 @@
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
+        <v>903</v>
+      </c>
+      <c r="B225" t="s">
         <v>904</v>
-      </c>
-      <c r="B225" t="s">
-        <v>905</v>
       </c>
       <c r="C225" t="s">
         <v>13</v>
@@ -14400,13 +14400,13 @@
         <v>519</v>
       </c>
       <c r="I225" s="9" t="s">
+        <v>905</v>
+      </c>
+      <c r="J225" s="9" t="s">
         <v>906</v>
       </c>
-      <c r="J225" s="9" t="s">
+      <c r="K225" s="9" t="s">
         <v>907</v>
-      </c>
-      <c r="K225" s="9" t="s">
-        <v>908</v>
       </c>
       <c r="L225">
         <v>2019</v>
@@ -14414,10 +14414,10 @@
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
+        <v>908</v>
+      </c>
+      <c r="B226" t="s">
         <v>909</v>
-      </c>
-      <c r="B226" t="s">
-        <v>910</v>
       </c>
       <c r="C226" t="s">
         <v>13</v>
@@ -14438,10 +14438,10 @@
         <v>75</v>
       </c>
       <c r="I226" s="9" t="s">
+        <v>910</v>
+      </c>
+      <c r="J226" s="9" t="s">
         <v>911</v>
-      </c>
-      <c r="J226" s="9" t="s">
-        <v>912</v>
       </c>
       <c r="K226" s="9" t="s">
         <v>560</v>
@@ -14452,10 +14452,10 @@
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
+        <v>912</v>
+      </c>
+      <c r="B227" t="s">
         <v>913</v>
-      </c>
-      <c r="B227" t="s">
-        <v>914</v>
       </c>
       <c r="C227" t="s">
         <v>13</v>
@@ -14482,7 +14482,7 @@
         <v>732</v>
       </c>
       <c r="K227" s="9" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="L227">
         <v>2019</v>
@@ -14490,10 +14490,10 @@
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
+        <v>915</v>
+      </c>
+      <c r="B228" t="s">
         <v>916</v>
-      </c>
-      <c r="B228" t="s">
-        <v>917</v>
       </c>
       <c r="C228" t="s">
         <v>14</v>
@@ -14520,7 +14520,7 @@
         <v>697</v>
       </c>
       <c r="K228" s="9" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="L228">
         <v>2019</v>
@@ -14528,10 +14528,10 @@
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
+        <v>918</v>
+      </c>
+      <c r="B229" t="s">
         <v>919</v>
-      </c>
-      <c r="B229" t="s">
-        <v>920</v>
       </c>
       <c r="C229" t="s">
         <v>13</v>
@@ -14552,10 +14552,10 @@
         <v>102</v>
       </c>
       <c r="I229" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="J229" s="9" t="s">
         <v>921</v>
-      </c>
-      <c r="J229" s="9" t="s">
-        <v>922</v>
       </c>
       <c r="K229" s="9" t="s">
         <v>294</v>
@@ -14566,10 +14566,10 @@
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
+        <v>922</v>
+      </c>
+      <c r="B230" t="s">
         <v>923</v>
-      </c>
-      <c r="B230" t="s">
-        <v>924</v>
       </c>
       <c r="C230" t="s">
         <v>13</v>
@@ -14590,7 +14590,7 @@
         <v>149</v>
       </c>
       <c r="I230" s="9" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="J230" s="9" t="s">
         <v>610</v>
@@ -14604,10 +14604,10 @@
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
+        <v>924</v>
+      </c>
+      <c r="B231" t="s">
         <v>925</v>
-      </c>
-      <c r="B231" t="s">
-        <v>926</v>
       </c>
       <c r="C231" t="s">
         <v>13</v>
@@ -14628,13 +14628,13 @@
         <v>429</v>
       </c>
       <c r="I231" s="9" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="J231" s="9" t="s">
         <v>770</v>
       </c>
       <c r="K231" s="9" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="L231">
         <v>2019</v>
@@ -14642,10 +14642,10 @@
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
+        <v>927</v>
+      </c>
+      <c r="B232" t="s">
         <v>928</v>
-      </c>
-      <c r="B232" t="s">
-        <v>929</v>
       </c>
       <c r="C232" t="s">
         <v>14</v>
@@ -14666,10 +14666,10 @@
         <v>429</v>
       </c>
       <c r="I232" s="9" t="s">
+        <v>929</v>
+      </c>
+      <c r="J232" s="9" t="s">
         <v>930</v>
-      </c>
-      <c r="J232" s="9" t="s">
-        <v>931</v>
       </c>
       <c r="K232" s="9" t="s">
         <v>745</v>
@@ -14680,10 +14680,10 @@
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
+        <v>931</v>
+      </c>
+      <c r="B233" t="s">
         <v>932</v>
-      </c>
-      <c r="B233" t="s">
-        <v>933</v>
       </c>
       <c r="C233" t="s">
         <v>13</v>
@@ -14704,7 +14704,7 @@
         <v>776</v>
       </c>
       <c r="I233" s="9" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
       <c r="J233" s="9" t="s">
         <v>693</v>
@@ -14718,10 +14718,10 @@
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
+        <v>934</v>
+      </c>
+      <c r="B234" t="s">
         <v>935</v>
-      </c>
-      <c r="B234" t="s">
-        <v>936</v>
       </c>
       <c r="C234" t="s">
         <v>14</v>
@@ -14742,10 +14742,10 @@
         <v>75</v>
       </c>
       <c r="I234" s="9" t="s">
+        <v>936</v>
+      </c>
+      <c r="J234" s="9" t="s">
         <v>937</v>
-      </c>
-      <c r="J234" s="9" t="s">
-        <v>938</v>
       </c>
       <c r="K234" s="9" t="s">
         <v>474</v>
@@ -14756,10 +14756,10 @@
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
+        <v>938</v>
+      </c>
+      <c r="B235" t="s">
         <v>939</v>
-      </c>
-      <c r="B235" t="s">
-        <v>940</v>
       </c>
       <c r="C235" t="s">
         <v>14</v>
@@ -14780,13 +14780,13 @@
         <v>149</v>
       </c>
       <c r="I235" s="9" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
       <c r="J235" s="9" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="K235" s="9" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="L235">
         <v>2019</v>
@@ -14794,10 +14794,10 @@
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
+        <v>941</v>
+      </c>
+      <c r="B236" t="s">
         <v>942</v>
-      </c>
-      <c r="B236" t="s">
-        <v>943</v>
       </c>
       <c r="C236" t="s">
         <v>14</v>
@@ -14818,10 +14818,10 @@
         <v>75</v>
       </c>
       <c r="I236" s="9" t="s">
+        <v>943</v>
+      </c>
+      <c r="J236" s="9" t="s">
         <v>944</v>
-      </c>
-      <c r="J236" s="9" t="s">
-        <v>945</v>
       </c>
       <c r="K236" s="9" t="s">
         <v>583</v>
@@ -14832,10 +14832,10 @@
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
+        <v>945</v>
+      </c>
+      <c r="B237" t="s">
         <v>946</v>
-      </c>
-      <c r="B237" t="s">
-        <v>947</v>
       </c>
       <c r="C237" t="s">
         <v>13</v>
@@ -14856,13 +14856,13 @@
         <v>429</v>
       </c>
       <c r="I237" s="9" t="s">
+        <v>947</v>
+      </c>
+      <c r="J237" s="9" t="s">
         <v>948</v>
       </c>
-      <c r="J237" s="9" t="s">
+      <c r="K237" s="9" t="s">
         <v>949</v>
-      </c>
-      <c r="K237" s="9" t="s">
-        <v>950</v>
       </c>
       <c r="L237">
         <v>2019</v>
@@ -14870,10 +14870,10 @@
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
+        <v>950</v>
+      </c>
+      <c r="B238" t="s">
         <v>951</v>
-      </c>
-      <c r="B238" t="s">
-        <v>952</v>
       </c>
       <c r="C238" t="s">
         <v>14</v>
@@ -14894,13 +14894,13 @@
         <v>776</v>
       </c>
       <c r="I238" s="9" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="J238" s="9" t="s">
         <v>710</v>
       </c>
       <c r="K238" s="9" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
       <c r="L238">
         <v>2019</v>
@@ -14908,10 +14908,10 @@
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
+        <v>954</v>
+      </c>
+      <c r="B239" t="s">
         <v>955</v>
-      </c>
-      <c r="B239" t="s">
-        <v>956</v>
       </c>
       <c r="C239" t="s">
         <v>14</v>
@@ -14932,10 +14932,10 @@
         <v>102</v>
       </c>
       <c r="I239" s="9" t="s">
+        <v>956</v>
+      </c>
+      <c r="J239" s="9" t="s">
         <v>957</v>
-      </c>
-      <c r="J239" s="9" t="s">
-        <v>958</v>
       </c>
       <c r="K239" s="9" t="s">
         <v>529</v>
@@ -14946,10 +14946,10 @@
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
+        <v>958</v>
+      </c>
+      <c r="B240" t="s">
         <v>959</v>
-      </c>
-      <c r="B240" t="s">
-        <v>960</v>
       </c>
       <c r="C240" t="s">
         <v>13</v>
@@ -14973,7 +14973,7 @@
         <v>26</v>
       </c>
       <c r="J240" s="9" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="K240" s="9" t="s">
         <v>791</v>
@@ -14984,10 +14984,10 @@
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
+        <v>961</v>
+      </c>
+      <c r="B241" t="s">
         <v>962</v>
-      </c>
-      <c r="B241" t="s">
-        <v>963</v>
       </c>
       <c r="C241" t="s">
         <v>13</v>
@@ -15008,10 +15008,10 @@
         <v>125</v>
       </c>
       <c r="I241" s="9" t="s">
+        <v>963</v>
+      </c>
+      <c r="J241" s="9" t="s">
         <v>964</v>
-      </c>
-      <c r="J241" s="9" t="s">
-        <v>965</v>
       </c>
       <c r="K241" s="9" t="s">
         <v>621</v>
@@ -15022,10 +15022,10 @@
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A242" t="s">
+        <v>965</v>
+      </c>
+      <c r="B242" t="s">
         <v>966</v>
-      </c>
-      <c r="B242" t="s">
-        <v>967</v>
       </c>
       <c r="C242" t="s">
         <v>14</v>
@@ -15052,7 +15052,7 @@
         <v>754</v>
       </c>
       <c r="K242" s="9" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="L242">
         <v>2019</v>
@@ -15060,10 +15060,10 @@
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A243" t="s">
+        <v>968</v>
+      </c>
+      <c r="B243" t="s">
         <v>969</v>
-      </c>
-      <c r="B243" t="s">
-        <v>970</v>
       </c>
       <c r="C243" t="s">
         <v>14</v>
@@ -15084,10 +15084,10 @@
         <v>125</v>
       </c>
       <c r="I243" s="9" t="s">
+        <v>970</v>
+      </c>
+      <c r="J243" s="9" t="s">
         <v>971</v>
-      </c>
-      <c r="J243" s="9" t="s">
-        <v>972</v>
       </c>
       <c r="K243" s="9" t="s">
         <v>551</v>
@@ -15098,10 +15098,10 @@
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A244" t="s">
+        <v>972</v>
+      </c>
+      <c r="B244" t="s">
         <v>973</v>
-      </c>
-      <c r="B244" t="s">
-        <v>974</v>
       </c>
       <c r="C244" t="s">
         <v>13</v>
@@ -15122,13 +15122,13 @@
         <v>429</v>
       </c>
       <c r="I244" s="9" t="s">
+        <v>974</v>
+      </c>
+      <c r="J244" s="9" t="s">
         <v>975</v>
       </c>
-      <c r="J244" s="9" t="s">
+      <c r="K244" s="9" t="s">
         <v>976</v>
-      </c>
-      <c r="K244" s="9" t="s">
-        <v>977</v>
       </c>
       <c r="L244">
         <v>2019</v>
@@ -15136,10 +15136,10 @@
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A245" t="s">
+        <v>977</v>
+      </c>
+      <c r="B245" t="s">
         <v>978</v>
-      </c>
-      <c r="B245" t="s">
-        <v>979</v>
       </c>
       <c r="C245" t="s">
         <v>13</v>
@@ -15160,13 +15160,13 @@
         <v>776</v>
       </c>
       <c r="I245" s="9" t="s">
+        <v>819</v>
+      </c>
+      <c r="J245" s="9" t="s">
         <v>820</v>
       </c>
-      <c r="J245" s="9" t="s">
-        <v>821</v>
-      </c>
       <c r="K245" s="9" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="L245">
         <v>2019</v>
@@ -15174,10 +15174,10 @@
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A246" t="s">
+        <v>980</v>
+      </c>
+      <c r="B246" t="s">
         <v>981</v>
-      </c>
-      <c r="B246" t="s">
-        <v>982</v>
       </c>
       <c r="C246" t="s">
         <v>13</v>
@@ -15198,13 +15198,13 @@
         <v>429</v>
       </c>
       <c r="I246" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="J246" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="J246" s="9" t="s">
-        <v>984</v>
-      </c>
       <c r="K246" s="9" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="L246">
         <v>2019</v>
@@ -15212,10 +15212,10 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A247" t="s">
+        <v>984</v>
+      </c>
+      <c r="B247" t="s">
         <v>985</v>
-      </c>
-      <c r="B247" t="s">
-        <v>986</v>
       </c>
       <c r="C247" t="s">
         <v>14</v>
@@ -15242,7 +15242,7 @@
         <v>778</v>
       </c>
       <c r="K247" s="9" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="L247">
         <v>2019</v>
@@ -15250,10 +15250,10 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A248" t="s">
+        <v>987</v>
+      </c>
+      <c r="B248" t="s">
         <v>988</v>
-      </c>
-      <c r="B248" t="s">
-        <v>989</v>
       </c>
       <c r="C248" t="s">
         <v>13</v>
@@ -15274,13 +15274,13 @@
         <v>519</v>
       </c>
       <c r="I248" s="9" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="J248" s="9" t="s">
         <v>732</v>
       </c>
       <c r="K248" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="L248">
         <v>2019</v>
@@ -15288,10 +15288,10 @@
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A249" t="s">
+        <v>991</v>
+      </c>
+      <c r="B249" t="s">
         <v>992</v>
-      </c>
-      <c r="B249" t="s">
-        <v>993</v>
       </c>
       <c r="C249" t="s">
         <v>14</v>
@@ -15312,13 +15312,13 @@
         <v>125</v>
       </c>
       <c r="I249" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="J249" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="J249" s="9" t="s">
+      <c r="K249" s="9" t="s">
         <v>995</v>
-      </c>
-      <c r="K249" s="9" t="s">
-        <v>996</v>
       </c>
       <c r="L249">
         <v>2019</v>
@@ -15326,10 +15326,10 @@
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A250" t="s">
+        <v>996</v>
+      </c>
+      <c r="B250" t="s">
         <v>997</v>
-      </c>
-      <c r="B250" t="s">
-        <v>998</v>
       </c>
       <c r="C250" t="s">
         <v>13</v>
@@ -15350,13 +15350,13 @@
         <v>149</v>
       </c>
       <c r="I250" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="J250" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="J250" s="9" t="s">
-        <v>922</v>
-      </c>
       <c r="K250" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="L250">
         <v>2019</v>
@@ -15364,10 +15364,10 @@
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A251" t="s">
+        <v>999</v>
+      </c>
+      <c r="B251" t="s">
         <v>1000</v>
-      </c>
-      <c r="B251" t="s">
-        <v>1001</v>
       </c>
       <c r="C251" t="s">
         <v>13</v>
@@ -15388,13 +15388,13 @@
         <v>102</v>
       </c>
       <c r="I251" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="J251" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="J251" s="9" t="s">
+      <c r="K251" s="9" t="s">
         <v>1003</v>
-      </c>
-      <c r="K251" s="9" t="s">
-        <v>1004</v>
       </c>
       <c r="L251">
         <v>2019</v>
@@ -15402,10 +15402,10 @@
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A252" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B252" t="s">
         <v>1005</v>
-      </c>
-      <c r="B252" t="s">
-        <v>1006</v>
       </c>
       <c r="C252" t="s">
         <v>13</v>
@@ -15426,13 +15426,13 @@
         <v>776</v>
       </c>
       <c r="I252" s="9" t="s">
+        <v>982</v>
+      </c>
+      <c r="J252" s="9" t="s">
         <v>983</v>
       </c>
-      <c r="J252" s="9" t="s">
-        <v>984</v>
-      </c>
       <c r="K252" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="L252">
         <v>2019</v>
@@ -15440,10 +15440,10 @@
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A253" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B253" t="s">
         <v>1008</v>
-      </c>
-      <c r="B253" t="s">
-        <v>1009</v>
       </c>
       <c r="C253" t="s">
         <v>13</v>
@@ -15464,10 +15464,10 @@
         <v>75</v>
       </c>
       <c r="I253" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J253" s="9" t="s">
         <v>1010</v>
-      </c>
-      <c r="J253" s="9" t="s">
-        <v>1011</v>
       </c>
       <c r="K253" s="9" t="s">
         <v>693</v>
@@ -15478,10 +15478,10 @@
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A254" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B254" t="s">
         <v>1012</v>
-      </c>
-      <c r="B254" t="s">
-        <v>1013</v>
       </c>
       <c r="C254" t="s">
         <v>14</v>
@@ -15502,10 +15502,10 @@
         <v>75</v>
       </c>
       <c r="I254" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="J254" s="9" t="s">
         <v>1010</v>
-      </c>
-      <c r="J254" s="9" t="s">
-        <v>1011</v>
       </c>
       <c r="K254" s="9" t="s">
         <v>693</v>
@@ -15516,10 +15516,10 @@
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A255" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B255" t="s">
         <v>1014</v>
-      </c>
-      <c r="B255" t="s">
-        <v>1015</v>
       </c>
       <c r="C255" t="s">
         <v>13</v>
@@ -15540,13 +15540,13 @@
         <v>429</v>
       </c>
       <c r="I255" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="J255" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="J255" s="9" t="s">
+      <c r="K255" s="9" t="s">
         <v>1017</v>
-      </c>
-      <c r="K255" s="9" t="s">
-        <v>1018</v>
       </c>
       <c r="L255">
         <v>2019</v>
@@ -15554,10 +15554,10 @@
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A256" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B256" t="s">
         <v>1019</v>
-      </c>
-      <c r="B256" t="s">
-        <v>1020</v>
       </c>
       <c r="C256" t="s">
         <v>14</v>
@@ -15578,13 +15578,13 @@
         <v>149</v>
       </c>
       <c r="I256" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="J256" s="9" t="s">
         <v>1021</v>
       </c>
-      <c r="J256" s="9" t="s">
+      <c r="K256" s="9" t="s">
         <v>1022</v>
-      </c>
-      <c r="K256" s="9" t="s">
-        <v>1023</v>
       </c>
       <c r="L256">
         <v>2019</v>
@@ -15592,10 +15592,10 @@
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A257" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B257" t="s">
         <v>1024</v>
-      </c>
-      <c r="B257" t="s">
-        <v>1025</v>
       </c>
       <c r="C257" t="s">
         <v>14</v>
@@ -15616,13 +15616,13 @@
         <v>149</v>
       </c>
       <c r="I257" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="J257" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="J257" s="9" t="s">
-        <v>1027</v>
-      </c>
       <c r="K257" s="9" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="L257">
         <v>2019</v>
@@ -15630,10 +15630,10 @@
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A258" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B258" t="s">
         <v>1028</v>
-      </c>
-      <c r="B258" t="s">
-        <v>1029</v>
       </c>
       <c r="C258" t="s">
         <v>13</v>
@@ -15654,13 +15654,13 @@
         <v>429</v>
       </c>
       <c r="I258" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="J258" s="9" t="s">
         <v>921</v>
       </c>
-      <c r="J258" s="9" t="s">
-        <v>922</v>
-      </c>
       <c r="K258" s="9" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="L258">
         <v>2019</v>
@@ -15668,10 +15668,10 @@
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A259" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B259" t="s">
         <v>1031</v>
-      </c>
-      <c r="B259" t="s">
-        <v>1032</v>
       </c>
       <c r="C259" t="s">
         <v>14</v>
@@ -15692,13 +15692,13 @@
         <v>519</v>
       </c>
       <c r="I259" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="J259" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="J259" s="9" t="s">
+      <c r="K259" s="9" t="s">
         <v>1034</v>
-      </c>
-      <c r="K259" s="9" t="s">
-        <v>1035</v>
       </c>
       <c r="L259">
         <v>2019</v>
@@ -15706,10 +15706,10 @@
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A260" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B260" t="s">
         <v>1036</v>
-      </c>
-      <c r="B260" t="s">
-        <v>1037</v>
       </c>
       <c r="C260" t="s">
         <v>13</v>
@@ -15730,10 +15730,10 @@
         <v>75</v>
       </c>
       <c r="I260" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J260" s="9" t="s">
         <v>1038</v>
-      </c>
-      <c r="J260" s="9" t="s">
-        <v>1039</v>
       </c>
       <c r="K260" s="9" t="s">
         <v>710</v>
@@ -15744,10 +15744,10 @@
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A261" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B261" t="s">
         <v>1040</v>
-      </c>
-      <c r="B261" t="s">
-        <v>1041</v>
       </c>
       <c r="C261" t="s">
         <v>14</v>
@@ -15768,13 +15768,13 @@
         <v>125</v>
       </c>
       <c r="I261" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="J261" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="J261" s="9" t="s">
+      <c r="K261" s="9" t="s">
         <v>1043</v>
-      </c>
-      <c r="K261" s="9" t="s">
-        <v>1044</v>
       </c>
       <c r="L261">
         <v>2019</v>
@@ -15782,10 +15782,10 @@
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A262" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B262" t="s">
         <v>1045</v>
-      </c>
-      <c r="B262" t="s">
-        <v>1046</v>
       </c>
       <c r="C262" t="s">
         <v>14</v>
@@ -15809,10 +15809,10 @@
         <v>22</v>
       </c>
       <c r="J262" s="9" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="K262" s="9" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="L262">
         <v>2019</v>
@@ -15820,10 +15820,10 @@
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A263" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B263" t="s">
         <v>1047</v>
-      </c>
-      <c r="B263" t="s">
-        <v>1048</v>
       </c>
       <c r="C263" t="s">
         <v>13</v>
@@ -15844,13 +15844,13 @@
         <v>149</v>
       </c>
       <c r="I263" s="9" t="s">
+        <v>1048</v>
+      </c>
+      <c r="J263" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="J263" s="9" t="s">
+      <c r="K263" s="9" t="s">
         <v>1050</v>
-      </c>
-      <c r="K263" s="9" t="s">
-        <v>1051</v>
       </c>
       <c r="L263">
         <v>2019</v>
@@ -15858,10 +15858,10 @@
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A264" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B264" t="s">
         <v>1052</v>
-      </c>
-      <c r="B264" t="s">
-        <v>1053</v>
       </c>
       <c r="C264" t="s">
         <v>13</v>
@@ -15882,13 +15882,13 @@
         <v>519</v>
       </c>
       <c r="I264" s="9" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="J264" s="9" t="s">
         <v>773</v>
       </c>
       <c r="K264" s="9" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="L264">
         <v>2019</v>
@@ -15896,10 +15896,10 @@
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A265" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B265" t="s">
         <v>1056</v>
-      </c>
-      <c r="B265" t="s">
-        <v>1057</v>
       </c>
       <c r="C265" t="s">
         <v>14</v>
@@ -15923,10 +15923,10 @@
         <v>20</v>
       </c>
       <c r="J265" s="9" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="K265" s="9" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
       <c r="L265">
         <v>2019</v>
@@ -15934,10 +15934,10 @@
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A266" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B266" t="s">
         <v>1059</v>
-      </c>
-      <c r="B266" t="s">
-        <v>1060</v>
       </c>
       <c r="C266" t="s">
         <v>13</v>
@@ -15958,13 +15958,13 @@
         <v>776</v>
       </c>
       <c r="I266" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="J266" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="J266" s="9" t="s">
+      <c r="K266" s="9" t="s">
         <v>1062</v>
-      </c>
-      <c r="K266" s="9" t="s">
-        <v>1063</v>
       </c>
       <c r="L266">
         <v>2019</v>
@@ -15972,10 +15972,10 @@
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A267" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B267" t="s">
         <v>1064</v>
-      </c>
-      <c r="B267" t="s">
-        <v>1065</v>
       </c>
       <c r="C267" t="s">
         <v>13</v>
@@ -15996,13 +15996,13 @@
         <v>776</v>
       </c>
       <c r="I267" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="J267" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="K267" s="9" t="s">
         <v>1066</v>
-      </c>
-      <c r="J267" s="9" t="s">
-        <v>1050</v>
-      </c>
-      <c r="K267" s="9" t="s">
-        <v>1067</v>
       </c>
       <c r="L267">
         <v>2019</v>
@@ -16010,10 +16010,10 @@
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A268" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B268" t="s">
         <v>1068</v>
-      </c>
-      <c r="B268" t="s">
-        <v>1069</v>
       </c>
       <c r="C268" t="s">
         <v>14</v>
@@ -16025,7 +16025,7 @@
         <v>57</v>
       </c>
       <c r="F268" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G268">
         <v>2</v>
@@ -16034,13 +16034,13 @@
         <v>796</v>
       </c>
       <c r="I268" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="J268" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="J268" s="9" t="s">
+      <c r="K268" s="9" t="s">
         <v>1071</v>
-      </c>
-      <c r="K268" s="9" t="s">
-        <v>1072</v>
       </c>
       <c r="L268">
         <v>2019</v>
@@ -16048,10 +16048,10 @@
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A269" t="s">
+        <v>1072</v>
+      </c>
+      <c r="B269" t="s">
         <v>1073</v>
-      </c>
-      <c r="B269" t="s">
-        <v>1074</v>
       </c>
       <c r="C269" t="s">
         <v>14</v>
@@ -16072,10 +16072,10 @@
         <v>102</v>
       </c>
       <c r="I269" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="J269" s="9" t="s">
         <v>1075</v>
-      </c>
-      <c r="J269" s="9" t="s">
-        <v>1076</v>
       </c>
       <c r="K269" s="9" t="s">
         <v>556</v>
@@ -16086,10 +16086,10 @@
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A270" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B270" t="s">
         <v>1077</v>
-      </c>
-      <c r="B270" t="s">
-        <v>1078</v>
       </c>
       <c r="C270" t="s">
         <v>13</v>
@@ -16110,13 +16110,13 @@
         <v>149</v>
       </c>
       <c r="I270" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J270" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="J270" s="9" t="s">
+      <c r="K270" s="9" t="s">
         <v>1080</v>
-      </c>
-      <c r="K270" s="9" t="s">
-        <v>1081</v>
       </c>
       <c r="L270">
         <v>2019</v>
@@ -16124,10 +16124,10 @@
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A271" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B271" t="s">
         <v>1082</v>
-      </c>
-      <c r="B271" t="s">
-        <v>1083</v>
       </c>
       <c r="C271" t="s">
         <v>14</v>
@@ -16148,13 +16148,13 @@
         <v>125</v>
       </c>
       <c r="I271" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="J271" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="J271" s="9" t="s">
+      <c r="K271" s="9" t="s">
         <v>1085</v>
-      </c>
-      <c r="K271" s="9" t="s">
-        <v>1086</v>
       </c>
       <c r="L271">
         <v>2019</v>
@@ -16162,10 +16162,10 @@
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A272" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B272" t="s">
         <v>1087</v>
-      </c>
-      <c r="B272" t="s">
-        <v>1088</v>
       </c>
       <c r="C272" t="s">
         <v>14</v>
@@ -16186,13 +16186,13 @@
         <v>149</v>
       </c>
       <c r="I272" s="9" t="s">
+        <v>1088</v>
+      </c>
+      <c r="J272" s="9" t="s">
         <v>1089</v>
       </c>
-      <c r="J272" s="9" t="s">
-        <v>1090</v>
-      </c>
       <c r="K272" s="9" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
       <c r="L272">
         <v>2019</v>
@@ -16200,10 +16200,10 @@
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A273" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B273" t="s">
         <v>1091</v>
-      </c>
-      <c r="B273" t="s">
-        <v>1092</v>
       </c>
       <c r="C273" t="s">
         <v>13</v>
@@ -16224,13 +16224,13 @@
         <v>149</v>
       </c>
       <c r="I273" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="J273" s="9" t="s">
         <v>1093</v>
       </c>
-      <c r="J273" s="9" t="s">
+      <c r="K273" s="9" t="s">
         <v>1094</v>
-      </c>
-      <c r="K273" s="9" t="s">
-        <v>1095</v>
       </c>
       <c r="L273">
         <v>2019</v>
@@ -16238,22 +16238,22 @@
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A274" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B274" t="s">
         <v>1096</v>
       </c>
-      <c r="B274" t="s">
+      <c r="C274" t="s">
+        <v>14</v>
+      </c>
+      <c r="D274" t="s">
+        <v>13</v>
+      </c>
+      <c r="E274" t="s">
         <v>1097</v>
       </c>
-      <c r="C274" t="s">
-        <v>14</v>
-      </c>
-      <c r="D274" t="s">
-        <v>13</v>
-      </c>
-      <c r="E274" t="s">
-        <v>1098</v>
-      </c>
       <c r="F274" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G274">
         <v>7</v>
@@ -16262,13 +16262,13 @@
         <v>75</v>
       </c>
       <c r="I274" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="J274" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="J274" s="9" t="s">
-        <v>1100</v>
-      </c>
       <c r="K274" s="9" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="L274">
         <v>2019</v>
@@ -16276,10 +16276,10 @@
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A275" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B275" t="s">
         <v>1101</v>
-      </c>
-      <c r="B275" t="s">
-        <v>1102</v>
       </c>
       <c r="C275" t="s">
         <v>13</v>
@@ -16300,13 +16300,13 @@
         <v>137</v>
       </c>
       <c r="I275" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="J275" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="J275" s="9" t="s">
-        <v>1104</v>
-      </c>
       <c r="K275" s="9" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="L275">
         <v>2019</v>
@@ -16314,10 +16314,10 @@
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A276" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B276" t="s">
         <v>1105</v>
-      </c>
-      <c r="B276" t="s">
-        <v>1106</v>
       </c>
       <c r="C276" t="s">
         <v>13</v>
@@ -16338,13 +16338,13 @@
         <v>125</v>
       </c>
       <c r="I276" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="J276" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="J276" s="9" t="s">
+      <c r="K276" s="9" t="s">
         <v>1108</v>
-      </c>
-      <c r="K276" s="9" t="s">
-        <v>1109</v>
       </c>
       <c r="L276">
         <v>2019</v>
@@ -16352,10 +16352,10 @@
     </row>
     <row r="277" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A277" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B277" t="s">
         <v>1111</v>
-      </c>
-      <c r="B277" t="s">
-        <v>1112</v>
       </c>
       <c r="C277" t="s">
         <v>14</v>
@@ -16390,10 +16390,10 @@
     </row>
     <row r="278" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A278" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B278" t="s">
         <v>1113</v>
-      </c>
-      <c r="B278" t="s">
-        <v>1114</v>
       </c>
       <c r="C278" t="s">
         <v>14</v>
@@ -16428,10 +16428,10 @@
     </row>
     <row r="279" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A279" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B279" t="s">
         <v>1115</v>
-      </c>
-      <c r="B279" t="s">
-        <v>1116</v>
       </c>
       <c r="C279" t="s">
         <v>13</v>
@@ -16466,10 +16466,10 @@
     </row>
     <row r="280" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A280" t="s">
+        <v>1116</v>
+      </c>
+      <c r="B280" t="s">
         <v>1117</v>
-      </c>
-      <c r="B280" t="s">
-        <v>1118</v>
       </c>
       <c r="C280" t="s">
         <v>13</v>
@@ -16504,10 +16504,10 @@
     </row>
     <row r="281" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A281" t="s">
+        <v>1118</v>
+      </c>
+      <c r="B281" t="s">
         <v>1119</v>
-      </c>
-      <c r="B281" t="s">
-        <v>1120</v>
       </c>
       <c r="C281" t="s">
         <v>14</v>
@@ -16542,10 +16542,10 @@
     </row>
     <row r="282" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A282" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B282" t="s">
         <v>1121</v>
-      </c>
-      <c r="B282" t="s">
-        <v>1122</v>
       </c>
       <c r="C282" t="s">
         <v>13</v>
@@ -16580,10 +16580,10 @@
     </row>
     <row r="283" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A283" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B283" t="s">
         <v>1123</v>
-      </c>
-      <c r="B283" t="s">
-        <v>1124</v>
       </c>
       <c r="C283" t="s">
         <v>14</v>
@@ -16618,10 +16618,10 @@
     </row>
     <row r="284" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A284" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B284" t="s">
         <v>1125</v>
-      </c>
-      <c r="B284" t="s">
-        <v>1126</v>
       </c>
       <c r="C284" t="s">
         <v>13</v>
@@ -16656,10 +16656,10 @@
     </row>
     <row r="285" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A285" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B285" t="s">
         <v>1127</v>
-      </c>
-      <c r="B285" t="s">
-        <v>1128</v>
       </c>
       <c r="C285" t="s">
         <v>14</v>
@@ -16694,10 +16694,10 @@
     </row>
     <row r="286" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A286" t="s">
+        <v>1128</v>
+      </c>
+      <c r="B286" t="s">
         <v>1129</v>
-      </c>
-      <c r="B286" t="s">
-        <v>1130</v>
       </c>
       <c r="C286" t="s">
         <v>13</v>
@@ -16732,10 +16732,10 @@
     </row>
     <row r="287" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A287" t="s">
+        <v>1130</v>
+      </c>
+      <c r="B287" t="s">
         <v>1131</v>
-      </c>
-      <c r="B287" t="s">
-        <v>1132</v>
       </c>
       <c r="C287" t="s">
         <v>14</v>
@@ -16770,10 +16770,10 @@
     </row>
     <row r="288" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A288" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B288" t="s">
         <v>1133</v>
-      </c>
-      <c r="B288" t="s">
-        <v>1134</v>
       </c>
       <c r="C288" t="s">
         <v>14</v>
@@ -16808,10 +16808,10 @@
     </row>
     <row r="289" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A289" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B289" t="s">
         <v>1135</v>
-      </c>
-      <c r="B289" t="s">
-        <v>1136</v>
       </c>
       <c r="C289" t="s">
         <v>13</v>
@@ -16846,10 +16846,10 @@
     </row>
     <row r="290" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A290" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B290" t="s">
         <v>1137</v>
-      </c>
-      <c r="B290" t="s">
-        <v>1138</v>
       </c>
       <c r="C290" t="s">
         <v>14</v>
@@ -16884,10 +16884,10 @@
     </row>
     <row r="291" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A291" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B291" t="s">
         <v>1139</v>
-      </c>
-      <c r="B291" t="s">
-        <v>1140</v>
       </c>
       <c r="C291" t="s">
         <v>13</v>
@@ -16922,10 +16922,10 @@
     </row>
     <row r="292" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A292" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B292" t="s">
         <v>1141</v>
-      </c>
-      <c r="B292" t="s">
-        <v>1142</v>
       </c>
       <c r="C292" t="s">
         <v>13</v>
@@ -16960,10 +16960,10 @@
     </row>
     <row r="293" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A293" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B293" t="s">
         <v>1143</v>
-      </c>
-      <c r="B293" t="s">
-        <v>1144</v>
       </c>
       <c r="C293" t="s">
         <v>14</v>
@@ -16998,10 +16998,10 @@
     </row>
     <row r="294" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A294" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B294" t="s">
         <v>1145</v>
-      </c>
-      <c r="B294" t="s">
-        <v>1146</v>
       </c>
       <c r="C294" t="s">
         <v>14</v>
@@ -17036,10 +17036,10 @@
     </row>
     <row r="295" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A295" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B295" t="s">
         <v>1147</v>
-      </c>
-      <c r="B295" t="s">
-        <v>1148</v>
       </c>
       <c r="C295" t="s">
         <v>13</v>
@@ -17074,10 +17074,10 @@
     </row>
     <row r="296" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A296" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B296" t="s">
         <v>1149</v>
-      </c>
-      <c r="B296" t="s">
-        <v>1150</v>
       </c>
       <c r="C296" t="s">
         <v>14</v>
@@ -17112,10 +17112,10 @@
     </row>
     <row r="297" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A297" t="s">
+        <v>1150</v>
+      </c>
+      <c r="B297" t="s">
         <v>1151</v>
-      </c>
-      <c r="B297" t="s">
-        <v>1152</v>
       </c>
       <c r="C297" t="s">
         <v>13</v>
@@ -17150,10 +17150,10 @@
     </row>
     <row r="298" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A298" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B298" t="s">
         <v>1153</v>
-      </c>
-      <c r="B298" t="s">
-        <v>1154</v>
       </c>
       <c r="C298" t="s">
         <v>14</v>
@@ -17188,10 +17188,10 @@
     </row>
     <row r="299" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A299" t="s">
+        <v>1154</v>
+      </c>
+      <c r="B299" t="s">
         <v>1155</v>
-      </c>
-      <c r="B299" t="s">
-        <v>1156</v>
       </c>
       <c r="C299" t="s">
         <v>13</v>
@@ -17226,10 +17226,10 @@
     </row>
     <row r="300" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A300" t="s">
+        <v>1156</v>
+      </c>
+      <c r="B300" t="s">
         <v>1157</v>
-      </c>
-      <c r="B300" t="s">
-        <v>1158</v>
       </c>
       <c r="C300" t="s">
         <v>14</v>
@@ -17264,10 +17264,10 @@
     </row>
     <row r="301" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A301" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B301" t="s">
         <v>1159</v>
-      </c>
-      <c r="B301" t="s">
-        <v>1160</v>
       </c>
       <c r="C301" t="s">
         <v>14</v>
@@ -17302,10 +17302,10 @@
     </row>
     <row r="302" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A302" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B302" t="s">
         <v>1161</v>
-      </c>
-      <c r="B302" t="s">
-        <v>1162</v>
       </c>
       <c r="C302" t="s">
         <v>13</v>
@@ -17340,10 +17340,10 @@
     </row>
     <row r="303" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A303" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B303" t="s">
         <v>1163</v>
-      </c>
-      <c r="B303" t="s">
-        <v>1164</v>
       </c>
       <c r="C303" t="s">
         <v>13</v>
@@ -17378,10 +17378,10 @@
     </row>
     <row r="304" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A304" t="s">
+        <v>1164</v>
+      </c>
+      <c r="B304" t="s">
         <v>1165</v>
-      </c>
-      <c r="B304" t="s">
-        <v>1166</v>
       </c>
       <c r="C304" t="s">
         <v>14</v>
@@ -17416,10 +17416,10 @@
     </row>
     <row r="305" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A305" t="s">
+        <v>1166</v>
+      </c>
+      <c r="B305" t="s">
         <v>1167</v>
-      </c>
-      <c r="B305" t="s">
-        <v>1168</v>
       </c>
       <c r="C305" t="s">
         <v>14</v>
@@ -17454,10 +17454,10 @@
     </row>
     <row r="306" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A306" t="s">
+        <v>1168</v>
+      </c>
+      <c r="B306" t="s">
         <v>1169</v>
-      </c>
-      <c r="B306" t="s">
-        <v>1170</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
@@ -17492,10 +17492,10 @@
     </row>
     <row r="307" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A307" t="s">
+        <v>1170</v>
+      </c>
+      <c r="B307" t="s">
         <v>1171</v>
-      </c>
-      <c r="B307" t="s">
-        <v>1172</v>
       </c>
       <c r="C307" t="s">
         <v>13</v>
@@ -17530,10 +17530,10 @@
     </row>
     <row r="308" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A308" t="s">
+        <v>1172</v>
+      </c>
+      <c r="B308" t="s">
         <v>1173</v>
-      </c>
-      <c r="B308" t="s">
-        <v>1174</v>
       </c>
       <c r="C308" t="s">
         <v>14</v>
@@ -17568,10 +17568,10 @@
     </row>
     <row r="309" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A309" t="s">
+        <v>1174</v>
+      </c>
+      <c r="B309" t="s">
         <v>1175</v>
-      </c>
-      <c r="B309" t="s">
-        <v>1176</v>
       </c>
       <c r="C309" t="s">
         <v>14</v>
@@ -17606,10 +17606,10 @@
     </row>
     <row r="310" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A310" t="s">
+        <v>1176</v>
+      </c>
+      <c r="B310" t="s">
         <v>1177</v>
-      </c>
-      <c r="B310" t="s">
-        <v>1178</v>
       </c>
       <c r="C310" t="s">
         <v>13</v>
@@ -17644,10 +17644,10 @@
     </row>
     <row r="311" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A311" t="s">
+        <v>1178</v>
+      </c>
+      <c r="B311" t="s">
         <v>1179</v>
-      </c>
-      <c r="B311" t="s">
-        <v>1180</v>
       </c>
       <c r="C311" t="s">
         <v>13</v>
@@ -17682,10 +17682,10 @@
     </row>
     <row r="312" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A312" t="s">
+        <v>1180</v>
+      </c>
+      <c r="B312" t="s">
         <v>1181</v>
-      </c>
-      <c r="B312" t="s">
-        <v>1182</v>
       </c>
       <c r="C312" t="s">
         <v>13</v>
@@ -17720,10 +17720,10 @@
     </row>
     <row r="313" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A313" t="s">
+        <v>1182</v>
+      </c>
+      <c r="B313" t="s">
         <v>1183</v>
-      </c>
-      <c r="B313" t="s">
-        <v>1184</v>
       </c>
       <c r="C313" t="s">
         <v>13</v>
@@ -17758,10 +17758,10 @@
     </row>
     <row r="314" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A314" t="s">
+        <v>1184</v>
+      </c>
+      <c r="B314" t="s">
         <v>1185</v>
-      </c>
-      <c r="B314" t="s">
-        <v>1186</v>
       </c>
       <c r="C314" t="s">
         <v>13</v>
@@ -17796,10 +17796,10 @@
     </row>
     <row r="315" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A315" t="s">
+        <v>1186</v>
+      </c>
+      <c r="B315" t="s">
         <v>1187</v>
-      </c>
-      <c r="B315" t="s">
-        <v>1188</v>
       </c>
       <c r="C315" t="s">
         <v>13</v>
@@ -17834,10 +17834,10 @@
     </row>
     <row r="316" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A316" t="s">
+        <v>1188</v>
+      </c>
+      <c r="B316" t="s">
         <v>1189</v>
-      </c>
-      <c r="B316" t="s">
-        <v>1190</v>
       </c>
       <c r="C316" t="s">
         <v>14</v>
@@ -17872,10 +17872,10 @@
     </row>
     <row r="317" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A317" t="s">
+        <v>1190</v>
+      </c>
+      <c r="B317" t="s">
         <v>1191</v>
-      </c>
-      <c r="B317" t="s">
-        <v>1192</v>
       </c>
       <c r="C317" t="s">
         <v>13</v>
@@ -17910,10 +17910,10 @@
     </row>
     <row r="318" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A318" t="s">
+        <v>1192</v>
+      </c>
+      <c r="B318" t="s">
         <v>1193</v>
-      </c>
-      <c r="B318" t="s">
-        <v>1194</v>
       </c>
       <c r="C318" t="s">
         <v>13</v>
@@ -17948,10 +17948,10 @@
     </row>
     <row r="319" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A319" t="s">
+        <v>1194</v>
+      </c>
+      <c r="B319" t="s">
         <v>1195</v>
-      </c>
-      <c r="B319" t="s">
-        <v>1196</v>
       </c>
       <c r="C319" t="s">
         <v>13</v>
@@ -17986,10 +17986,10 @@
     </row>
     <row r="320" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A320" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B320" t="s">
         <v>1197</v>
-      </c>
-      <c r="B320" t="s">
-        <v>1198</v>
       </c>
       <c r="C320" t="s">
         <v>13</v>
@@ -18024,10 +18024,10 @@
     </row>
     <row r="321" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A321" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B321" t="s">
         <v>1199</v>
-      </c>
-      <c r="B321" t="s">
-        <v>1200</v>
       </c>
       <c r="C321" t="s">
         <v>13</v>
@@ -18062,10 +18062,10 @@
     </row>
     <row r="322" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A322" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B322" t="s">
         <v>1201</v>
-      </c>
-      <c r="B322" t="s">
-        <v>1202</v>
       </c>
       <c r="C322" t="s">
         <v>13</v>
@@ -18100,10 +18100,10 @@
     </row>
     <row r="323" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A323" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B323" t="s">
         <v>1203</v>
-      </c>
-      <c r="B323" t="s">
-        <v>1204</v>
       </c>
       <c r="C323" t="s">
         <v>14</v>
@@ -18138,10 +18138,10 @@
     </row>
     <row r="324" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A324" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B324" t="s">
         <v>1205</v>
-      </c>
-      <c r="B324" t="s">
-        <v>1206</v>
       </c>
       <c r="C324" t="s">
         <v>14</v>
@@ -18176,10 +18176,10 @@
     </row>
     <row r="325" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A325" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B325" t="s">
         <v>1207</v>
-      </c>
-      <c r="B325" t="s">
-        <v>1208</v>
       </c>
       <c r="C325" t="s">
         <v>14</v>
@@ -18214,10 +18214,10 @@
     </row>
     <row r="326" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A326" t="s">
+        <v>1208</v>
+      </c>
+      <c r="B326" t="s">
         <v>1209</v>
-      </c>
-      <c r="B326" t="s">
-        <v>1210</v>
       </c>
       <c r="C326" t="s">
         <v>14</v>
@@ -18252,10 +18252,10 @@
     </row>
     <row r="327" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A327" t="s">
+        <v>1210</v>
+      </c>
+      <c r="B327" t="s">
         <v>1211</v>
-      </c>
-      <c r="B327" t="s">
-        <v>1212</v>
       </c>
       <c r="C327" t="s">
         <v>14</v>
@@ -18290,10 +18290,10 @@
     </row>
     <row r="328" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A328" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B328" t="s">
         <v>1213</v>
-      </c>
-      <c r="B328" t="s">
-        <v>1214</v>
       </c>
       <c r="C328" t="s">
         <v>14</v>
@@ -18328,10 +18328,10 @@
     </row>
     <row r="329" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A329" t="s">
+        <v>1214</v>
+      </c>
+      <c r="B329" t="s">
         <v>1215</v>
-      </c>
-      <c r="B329" t="s">
-        <v>1216</v>
       </c>
       <c r="C329" t="s">
         <v>14</v>
@@ -18366,10 +18366,10 @@
     </row>
     <row r="330" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A330" t="s">
+        <v>1216</v>
+      </c>
+      <c r="B330" t="s">
         <v>1217</v>
-      </c>
-      <c r="B330" t="s">
-        <v>1218</v>
       </c>
       <c r="C330" t="s">
         <v>14</v>
@@ -18404,10 +18404,10 @@
     </row>
     <row r="331" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A331" t="s">
+        <v>1218</v>
+      </c>
+      <c r="B331" t="s">
         <v>1219</v>
-      </c>
-      <c r="B331" t="s">
-        <v>1220</v>
       </c>
       <c r="C331" t="s">
         <v>14</v>
@@ -18442,10 +18442,10 @@
     </row>
     <row r="332" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A332" t="s">
+        <v>1220</v>
+      </c>
+      <c r="B332" t="s">
         <v>1221</v>
-      </c>
-      <c r="B332" t="s">
-        <v>1222</v>
       </c>
       <c r="C332" t="s">
         <v>13</v>
@@ -18480,10 +18480,10 @@
     </row>
     <row r="333" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A333" t="s">
+        <v>1222</v>
+      </c>
+      <c r="B333" t="s">
         <v>1223</v>
-      </c>
-      <c r="B333" t="s">
-        <v>1224</v>
       </c>
       <c r="C333" t="s">
         <v>14</v>
@@ -18518,10 +18518,10 @@
     </row>
     <row r="334" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A334" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B334" t="s">
         <v>1225</v>
-      </c>
-      <c r="B334" t="s">
-        <v>1226</v>
       </c>
       <c r="C334" t="s">
         <v>13</v>
@@ -18556,10 +18556,10 @@
     </row>
     <row r="335" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A335" t="s">
+        <v>1226</v>
+      </c>
+      <c r="B335" t="s">
         <v>1227</v>
-      </c>
-      <c r="B335" t="s">
-        <v>1228</v>
       </c>
       <c r="C335" t="s">
         <v>13</v>
@@ -18594,10 +18594,10 @@
     </row>
     <row r="336" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A336" t="s">
+        <v>1228</v>
+      </c>
+      <c r="B336" t="s">
         <v>1229</v>
-      </c>
-      <c r="B336" t="s">
-        <v>1230</v>
       </c>
       <c r="C336" t="s">
         <v>13</v>
@@ -18632,10 +18632,10 @@
     </row>
     <row r="337" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A337" t="s">
+        <v>1230</v>
+      </c>
+      <c r="B337" t="s">
         <v>1231</v>
-      </c>
-      <c r="B337" t="s">
-        <v>1232</v>
       </c>
       <c r="C337" t="s">
         <v>14</v>
@@ -18670,10 +18670,10 @@
     </row>
     <row r="338" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A338" t="s">
+        <v>1232</v>
+      </c>
+      <c r="B338" t="s">
         <v>1233</v>
-      </c>
-      <c r="B338" t="s">
-        <v>1234</v>
       </c>
       <c r="C338" t="s">
         <v>14</v>
@@ -18708,10 +18708,10 @@
     </row>
     <row r="339" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A339" t="s">
+        <v>1234</v>
+      </c>
+      <c r="B339" t="s">
         <v>1235</v>
-      </c>
-      <c r="B339" t="s">
-        <v>1236</v>
       </c>
       <c r="C339" t="s">
         <v>13</v>
@@ -18746,10 +18746,10 @@
     </row>
     <row r="340" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A340" t="s">
+        <v>1236</v>
+      </c>
+      <c r="B340" t="s">
         <v>1237</v>
-      </c>
-      <c r="B340" t="s">
-        <v>1238</v>
       </c>
       <c r="C340" t="s">
         <v>13</v>
@@ -18784,10 +18784,10 @@
     </row>
     <row r="341" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A341" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B341" t="s">
         <v>1239</v>
-      </c>
-      <c r="B341" t="s">
-        <v>1240</v>
       </c>
       <c r="C341" t="s">
         <v>14</v>
@@ -18799,7 +18799,7 @@
         <v>42</v>
       </c>
       <c r="F341" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G341" s="3">
         <v>5</v>
@@ -18822,10 +18822,10 @@
     </row>
     <row r="342" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A342" t="s">
+        <v>1240</v>
+      </c>
+      <c r="B342" t="s">
         <v>1241</v>
-      </c>
-      <c r="B342" t="s">
-        <v>1242</v>
       </c>
       <c r="C342" t="s">
         <v>14</v>
@@ -18860,10 +18860,10 @@
     </row>
     <row r="343" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A343" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B343" t="s">
         <v>1243</v>
-      </c>
-      <c r="B343" t="s">
-        <v>1244</v>
       </c>
       <c r="C343" t="s">
         <v>13</v>
@@ -18898,10 +18898,10 @@
     </row>
     <row r="344" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A344" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B344" t="s">
         <v>1245</v>
-      </c>
-      <c r="B344" t="s">
-        <v>1246</v>
       </c>
       <c r="C344" t="s">
         <v>14</v>
@@ -18936,10 +18936,10 @@
     </row>
     <row r="345" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A345" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B345" t="s">
         <v>1247</v>
-      </c>
-      <c r="B345" t="s">
-        <v>1248</v>
       </c>
       <c r="C345" t="s">
         <v>14</v>
@@ -18974,10 +18974,10 @@
     </row>
     <row r="346" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A346" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B346" t="s">
         <v>1249</v>
-      </c>
-      <c r="B346" t="s">
-        <v>1250</v>
       </c>
       <c r="C346" t="s">
         <v>13</v>
@@ -19012,10 +19012,10 @@
     </row>
     <row r="347" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B347" t="s">
         <v>1251</v>
-      </c>
-      <c r="B347" t="s">
-        <v>1252</v>
       </c>
       <c r="C347" t="s">
         <v>13</v>
@@ -19050,10 +19050,10 @@
     </row>
     <row r="348" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B348" t="s">
         <v>1253</v>
-      </c>
-      <c r="B348" t="s">
-        <v>1254</v>
       </c>
       <c r="C348" t="s">
         <v>13</v>
@@ -19088,10 +19088,10 @@
     </row>
     <row r="349" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B349" t="s">
         <v>1255</v>
-      </c>
-      <c r="B349" t="s">
-        <v>1256</v>
       </c>
       <c r="C349" t="s">
         <v>13</v>
@@ -19126,10 +19126,10 @@
     </row>
     <row r="350" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B350" t="s">
         <v>1257</v>
-      </c>
-      <c r="B350" t="s">
-        <v>1258</v>
       </c>
       <c r="C350" t="s">
         <v>13</v>
@@ -19164,10 +19164,10 @@
     </row>
     <row r="351" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B351" t="s">
         <v>1259</v>
-      </c>
-      <c r="B351" t="s">
-        <v>1260</v>
       </c>
       <c r="C351" t="s">
         <v>14</v>
@@ -19202,10 +19202,10 @@
     </row>
     <row r="352" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B352" t="s">
         <v>1261</v>
-      </c>
-      <c r="B352" t="s">
-        <v>1262</v>
       </c>
       <c r="C352" t="s">
         <v>13</v>
@@ -19240,10 +19240,10 @@
     </row>
     <row r="353" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B353" t="s">
         <v>1263</v>
-      </c>
-      <c r="B353" t="s">
-        <v>1264</v>
       </c>
       <c r="C353" t="s">
         <v>13</v>
@@ -19278,10 +19278,10 @@
     </row>
     <row r="354" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
+        <v>1264</v>
+      </c>
+      <c r="B354" t="s">
         <v>1265</v>
-      </c>
-      <c r="B354" t="s">
-        <v>1266</v>
       </c>
       <c r="C354" t="s">
         <v>14</v>
@@ -19316,10 +19316,10 @@
     </row>
     <row r="355" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
+        <v>1266</v>
+      </c>
+      <c r="B355" t="s">
         <v>1267</v>
-      </c>
-      <c r="B355" t="s">
-        <v>1268</v>
       </c>
       <c r="C355" t="s">
         <v>13</v>
@@ -19354,10 +19354,10 @@
     </row>
     <row r="356" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
+        <v>1268</v>
+      </c>
+      <c r="B356" t="s">
         <v>1269</v>
-      </c>
-      <c r="B356" t="s">
-        <v>1270</v>
       </c>
       <c r="C356" t="s">
         <v>14</v>
@@ -19392,10 +19392,10 @@
     </row>
     <row r="357" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
+        <v>1270</v>
+      </c>
+      <c r="B357" t="s">
         <v>1271</v>
-      </c>
-      <c r="B357" t="s">
-        <v>1272</v>
       </c>
       <c r="C357" t="s">
         <v>14</v>
@@ -19430,10 +19430,10 @@
     </row>
     <row r="358" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
+        <v>1272</v>
+      </c>
+      <c r="B358" t="s">
         <v>1273</v>
-      </c>
-      <c r="B358" t="s">
-        <v>1274</v>
       </c>
       <c r="C358" t="s">
         <v>13</v>
@@ -19468,10 +19468,10 @@
     </row>
     <row r="359" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
+        <v>1274</v>
+      </c>
+      <c r="B359" t="s">
         <v>1275</v>
-      </c>
-      <c r="B359" t="s">
-        <v>1276</v>
       </c>
       <c r="C359" t="s">
         <v>14</v>
@@ -19506,10 +19506,10 @@
     </row>
     <row r="360" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
+        <v>1276</v>
+      </c>
+      <c r="B360" t="s">
         <v>1277</v>
-      </c>
-      <c r="B360" t="s">
-        <v>1278</v>
       </c>
       <c r="C360" t="s">
         <v>13</v>
@@ -19544,10 +19544,10 @@
     </row>
     <row r="361" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
+        <v>1278</v>
+      </c>
+      <c r="B361" t="s">
         <v>1279</v>
-      </c>
-      <c r="B361" t="s">
-        <v>1280</v>
       </c>
       <c r="C361" t="s">
         <v>14</v>
@@ -19582,10 +19582,10 @@
     </row>
     <row r="362" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
+        <v>1280</v>
+      </c>
+      <c r="B362" t="s">
         <v>1281</v>
-      </c>
-      <c r="B362" t="s">
-        <v>1282</v>
       </c>
       <c r="C362" t="s">
         <v>13</v>
@@ -19620,10 +19620,10 @@
     </row>
     <row r="363" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
+        <v>1282</v>
+      </c>
+      <c r="B363" t="s">
         <v>1283</v>
-      </c>
-      <c r="B363" t="s">
-        <v>1284</v>
       </c>
       <c r="C363" t="s">
         <v>13</v>
@@ -19658,10 +19658,10 @@
     </row>
     <row r="364" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
+        <v>1284</v>
+      </c>
+      <c r="B364" t="s">
         <v>1285</v>
-      </c>
-      <c r="B364" t="s">
-        <v>1286</v>
       </c>
       <c r="C364" t="s">
         <v>13</v>
@@ -19696,10 +19696,10 @@
     </row>
     <row r="365" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
+        <v>1286</v>
+      </c>
+      <c r="B365" t="s">
         <v>1287</v>
-      </c>
-      <c r="B365" t="s">
-        <v>1288</v>
       </c>
       <c r="C365" t="s">
         <v>14</v>
@@ -19734,10 +19734,10 @@
     </row>
     <row r="366" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B366" t="s">
         <v>1289</v>
-      </c>
-      <c r="B366" t="s">
-        <v>1290</v>
       </c>
       <c r="C366" t="s">
         <v>13</v>
@@ -19772,10 +19772,10 @@
     </row>
     <row r="367" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
+        <v>1290</v>
+      </c>
+      <c r="B367" t="s">
         <v>1291</v>
-      </c>
-      <c r="B367" t="s">
-        <v>1292</v>
       </c>
       <c r="C367" t="s">
         <v>14</v>
@@ -19810,10 +19810,10 @@
     </row>
     <row r="368" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
+        <v>1292</v>
+      </c>
+      <c r="B368" t="s">
         <v>1293</v>
-      </c>
-      <c r="B368" t="s">
-        <v>1294</v>
       </c>
       <c r="C368" t="s">
         <v>13</v>
@@ -19848,10 +19848,10 @@
     </row>
     <row r="369" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
+        <v>1294</v>
+      </c>
+      <c r="B369" t="s">
         <v>1295</v>
-      </c>
-      <c r="B369" t="s">
-        <v>1296</v>
       </c>
       <c r="C369" t="s">
         <v>13</v>
@@ -19886,10 +19886,10 @@
     </row>
     <row r="370" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
+        <v>1296</v>
+      </c>
+      <c r="B370" t="s">
         <v>1297</v>
-      </c>
-      <c r="B370" t="s">
-        <v>1298</v>
       </c>
       <c r="C370" t="s">
         <v>14</v>
@@ -19924,10 +19924,10 @@
     </row>
     <row r="371" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
+        <v>1298</v>
+      </c>
+      <c r="B371" t="s">
         <v>1299</v>
-      </c>
-      <c r="B371" t="s">
-        <v>1300</v>
       </c>
       <c r="C371" t="s">
         <v>14</v>
@@ -19962,10 +19962,10 @@
     </row>
     <row r="372" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
+        <v>1300</v>
+      </c>
+      <c r="B372" t="s">
         <v>1301</v>
-      </c>
-      <c r="B372" t="s">
-        <v>1302</v>
       </c>
       <c r="C372" t="s">
         <v>14</v>
@@ -20000,10 +20000,10 @@
     </row>
     <row r="373" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
+        <v>1302</v>
+      </c>
+      <c r="B373" t="s">
         <v>1303</v>
-      </c>
-      <c r="B373" t="s">
-        <v>1304</v>
       </c>
       <c r="C373" t="s">
         <v>13</v>
@@ -20038,10 +20038,10 @@
     </row>
     <row r="374" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
+        <v>1304</v>
+      </c>
+      <c r="B374" t="s">
         <v>1305</v>
-      </c>
-      <c r="B374" t="s">
-        <v>1306</v>
       </c>
       <c r="C374" t="s">
         <v>14</v>
@@ -20076,10 +20076,10 @@
     </row>
     <row r="375" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
+        <v>1306</v>
+      </c>
+      <c r="B375" t="s">
         <v>1307</v>
-      </c>
-      <c r="B375" t="s">
-        <v>1308</v>
       </c>
       <c r="C375" t="s">
         <v>13</v>
@@ -20114,10 +20114,10 @@
     </row>
     <row r="376" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
+        <v>1308</v>
+      </c>
+      <c r="B376" t="s">
         <v>1309</v>
-      </c>
-      <c r="B376" t="s">
-        <v>1310</v>
       </c>
       <c r="C376" t="s">
         <v>13</v>
@@ -20152,10 +20152,10 @@
     </row>
     <row r="377" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B377" t="s">
         <v>1311</v>
-      </c>
-      <c r="B377" t="s">
-        <v>1312</v>
       </c>
       <c r="C377" t="s">
         <v>14</v>
@@ -20190,10 +20190,10 @@
     </row>
     <row r="378" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
+        <v>1312</v>
+      </c>
+      <c r="B378" t="s">
         <v>1313</v>
-      </c>
-      <c r="B378" t="s">
-        <v>1314</v>
       </c>
       <c r="C378" t="s">
         <v>13</v>
@@ -20228,10 +20228,10 @@
     </row>
     <row r="379" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
+        <v>1314</v>
+      </c>
+      <c r="B379" t="s">
         <v>1315</v>
-      </c>
-      <c r="B379" t="s">
-        <v>1316</v>
       </c>
       <c r="C379" t="s">
         <v>13</v>
@@ -20266,10 +20266,10 @@
     </row>
     <row r="380" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
+        <v>1316</v>
+      </c>
+      <c r="B380" t="s">
         <v>1317</v>
-      </c>
-      <c r="B380" t="s">
-        <v>1318</v>
       </c>
       <c r="C380" t="s">
         <v>13</v>
@@ -20304,10 +20304,10 @@
     </row>
     <row r="381" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
+        <v>1318</v>
+      </c>
+      <c r="B381" t="s">
         <v>1319</v>
-      </c>
-      <c r="B381" t="s">
-        <v>1320</v>
       </c>
       <c r="C381" t="s">
         <v>14</v>
@@ -20342,10 +20342,10 @@
     </row>
     <row r="382" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
+        <v>1320</v>
+      </c>
+      <c r="B382" t="s">
         <v>1321</v>
-      </c>
-      <c r="B382" t="s">
-        <v>1322</v>
       </c>
       <c r="C382" t="s">
         <v>13</v>
@@ -20380,10 +20380,10 @@
     </row>
     <row r="383" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
+        <v>1322</v>
+      </c>
+      <c r="B383" t="s">
         <v>1323</v>
-      </c>
-      <c r="B383" t="s">
-        <v>1324</v>
       </c>
       <c r="C383" t="s">
         <v>13</v>
@@ -20418,10 +20418,10 @@
     </row>
     <row r="384" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
+        <v>1324</v>
+      </c>
+      <c r="B384" t="s">
         <v>1325</v>
-      </c>
-      <c r="B384" t="s">
-        <v>1326</v>
       </c>
       <c r="C384" t="s">
         <v>13</v>
@@ -20456,10 +20456,10 @@
     </row>
     <row r="385" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
+        <v>1326</v>
+      </c>
+      <c r="B385" t="s">
         <v>1327</v>
-      </c>
-      <c r="B385" t="s">
-        <v>1328</v>
       </c>
       <c r="C385" t="s">
         <v>14</v>
@@ -20494,10 +20494,10 @@
     </row>
     <row r="386" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
+        <v>1328</v>
+      </c>
+      <c r="B386" t="s">
         <v>1329</v>
-      </c>
-      <c r="B386" t="s">
-        <v>1330</v>
       </c>
       <c r="C386" t="s">
         <v>13</v>
@@ -20532,10 +20532,10 @@
     </row>
     <row r="387" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
+        <v>1330</v>
+      </c>
+      <c r="B387" t="s">
         <v>1331</v>
-      </c>
-      <c r="B387" t="s">
-        <v>1332</v>
       </c>
       <c r="C387" t="s">
         <v>14</v>
@@ -20570,10 +20570,10 @@
     </row>
     <row r="388" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
+        <v>1332</v>
+      </c>
+      <c r="B388" t="s">
         <v>1333</v>
-      </c>
-      <c r="B388" t="s">
-        <v>1334</v>
       </c>
       <c r="C388" t="s">
         <v>14</v>
@@ -20608,10 +20608,10 @@
     </row>
     <row r="389" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
+        <v>1334</v>
+      </c>
+      <c r="B389" t="s">
         <v>1335</v>
-      </c>
-      <c r="B389" t="s">
-        <v>1336</v>
       </c>
       <c r="C389" t="s">
         <v>13</v>
@@ -20646,10 +20646,10 @@
     </row>
     <row r="390" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
+        <v>1336</v>
+      </c>
+      <c r="B390" t="s">
         <v>1337</v>
-      </c>
-      <c r="B390" t="s">
-        <v>1338</v>
       </c>
       <c r="C390" t="s">
         <v>14</v>
@@ -20684,10 +20684,10 @@
     </row>
     <row r="391" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
+        <v>1338</v>
+      </c>
+      <c r="B391" t="s">
         <v>1339</v>
-      </c>
-      <c r="B391" t="s">
-        <v>1340</v>
       </c>
       <c r="C391" t="s">
         <v>14</v>
@@ -20722,10 +20722,10 @@
     </row>
     <row r="392" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
+        <v>1340</v>
+      </c>
+      <c r="B392" t="s">
         <v>1341</v>
-      </c>
-      <c r="B392" t="s">
-        <v>1342</v>
       </c>
       <c r="C392" t="s">
         <v>13</v>
@@ -20760,10 +20760,10 @@
     </row>
     <row r="393" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B393" t="s">
         <v>1343</v>
-      </c>
-      <c r="B393" t="s">
-        <v>1344</v>
       </c>
       <c r="C393" t="s">
         <v>13</v>
@@ -20798,10 +20798,10 @@
     </row>
     <row r="394" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
+        <v>1344</v>
+      </c>
+      <c r="B394" t="s">
         <v>1345</v>
-      </c>
-      <c r="B394" t="s">
-        <v>1346</v>
       </c>
       <c r="C394" t="s">
         <v>13</v>
@@ -20836,10 +20836,10 @@
     </row>
     <row r="395" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
+        <v>1346</v>
+      </c>
+      <c r="B395" t="s">
         <v>1347</v>
-      </c>
-      <c r="B395" t="s">
-        <v>1348</v>
       </c>
       <c r="C395" t="s">
         <v>13</v>
@@ -20851,7 +20851,7 @@
         <v>45</v>
       </c>
       <c r="F395" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G395" s="3">
         <v>4</v>
@@ -20874,10 +20874,10 @@
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
+        <v>1348</v>
+      </c>
+      <c r="B396" t="s">
         <v>1349</v>
-      </c>
-      <c r="B396" t="s">
-        <v>1350</v>
       </c>
       <c r="C396" t="s">
         <v>13</v>
@@ -20912,10 +20912,10 @@
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
+        <v>1350</v>
+      </c>
+      <c r="B397" t="s">
         <v>1351</v>
-      </c>
-      <c r="B397" t="s">
-        <v>1352</v>
       </c>
       <c r="C397" t="s">
         <v>14</v>
@@ -20950,10 +20950,10 @@
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
+        <v>1352</v>
+      </c>
+      <c r="B398" t="s">
         <v>1353</v>
-      </c>
-      <c r="B398" t="s">
-        <v>1354</v>
       </c>
       <c r="C398" t="s">
         <v>14</v>
@@ -20988,10 +20988,10 @@
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
+        <v>1354</v>
+      </c>
+      <c r="B399" t="s">
         <v>1355</v>
-      </c>
-      <c r="B399" t="s">
-        <v>1356</v>
       </c>
       <c r="C399" t="s">
         <v>13</v>
@@ -21026,10 +21026,10 @@
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
+        <v>1356</v>
+      </c>
+      <c r="B400" t="s">
         <v>1357</v>
-      </c>
-      <c r="B400" t="s">
-        <v>1358</v>
       </c>
       <c r="C400" t="s">
         <v>14</v>
@@ -21064,10 +21064,10 @@
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
+        <v>1358</v>
+      </c>
+      <c r="B401" t="s">
         <v>1359</v>
-      </c>
-      <c r="B401" t="s">
-        <v>1360</v>
       </c>
       <c r="C401" t="s">
         <v>13</v>
@@ -21102,10 +21102,10 @@
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
+        <v>1360</v>
+      </c>
+      <c r="B402" t="s">
         <v>1361</v>
-      </c>
-      <c r="B402" t="s">
-        <v>1362</v>
       </c>
       <c r="C402" t="s">
         <v>14</v>
@@ -21140,10 +21140,10 @@
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
+        <v>1362</v>
+      </c>
+      <c r="B403" t="s">
         <v>1363</v>
-      </c>
-      <c r="B403" t="s">
-        <v>1364</v>
       </c>
       <c r="C403" t="s">
         <v>13</v>
@@ -21178,10 +21178,10 @@
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
+        <v>1364</v>
+      </c>
+      <c r="B404" t="s">
         <v>1365</v>
-      </c>
-      <c r="B404" t="s">
-        <v>1366</v>
       </c>
       <c r="C404" t="s">
         <v>13</v>
@@ -21216,10 +21216,10 @@
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
+        <v>1366</v>
+      </c>
+      <c r="B405" t="s">
         <v>1367</v>
-      </c>
-      <c r="B405" t="s">
-        <v>1368</v>
       </c>
       <c r="C405" t="s">
         <v>14</v>
@@ -21254,10 +21254,10 @@
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
+        <v>1368</v>
+      </c>
+      <c r="B406" t="s">
         <v>1369</v>
-      </c>
-      <c r="B406" t="s">
-        <v>1370</v>
       </c>
       <c r="C406" t="s">
         <v>13</v>
@@ -21292,10 +21292,10 @@
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
+        <v>1370</v>
+      </c>
+      <c r="B407" t="s">
         <v>1371</v>
-      </c>
-      <c r="B407" t="s">
-        <v>1372</v>
       </c>
       <c r="C407" t="s">
         <v>13</v>
@@ -21330,10 +21330,10 @@
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
+        <v>1372</v>
+      </c>
+      <c r="B408" t="s">
         <v>1373</v>
-      </c>
-      <c r="B408" t="s">
-        <v>1374</v>
       </c>
       <c r="C408" t="s">
         <v>14</v>
@@ -21368,19 +21368,19 @@
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
+        <v>1374</v>
+      </c>
+      <c r="B409" t="s">
         <v>1375</v>
       </c>
-      <c r="B409" t="s">
+      <c r="C409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D409" t="s">
+        <v>14</v>
+      </c>
+      <c r="E409" t="s">
         <v>1376</v>
-      </c>
-      <c r="C409" t="s">
-        <v>13</v>
-      </c>
-      <c r="D409" t="s">
-        <v>14</v>
-      </c>
-      <c r="E409" t="s">
-        <v>1377</v>
       </c>
       <c r="F409" t="s">
         <v>24</v>
@@ -21406,10 +21406,10 @@
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
+        <v>1377</v>
+      </c>
+      <c r="B410" t="s">
         <v>1378</v>
-      </c>
-      <c r="B410" t="s">
-        <v>1379</v>
       </c>
       <c r="C410" t="s">
         <v>13</v>
@@ -21444,10 +21444,10 @@
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
+        <v>1379</v>
+      </c>
+      <c r="B411" t="s">
         <v>1380</v>
-      </c>
-      <c r="B411" t="s">
-        <v>1381</v>
       </c>
       <c r="C411" t="s">
         <v>13</v>
@@ -21482,10 +21482,10 @@
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
+        <v>1381</v>
+      </c>
+      <c r="B412" t="s">
         <v>1382</v>
-      </c>
-      <c r="B412" t="s">
-        <v>1383</v>
       </c>
       <c r="C412" t="s">
         <v>13</v>
@@ -21520,10 +21520,10 @@
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
+        <v>1383</v>
+      </c>
+      <c r="B413" t="s">
         <v>1384</v>
-      </c>
-      <c r="B413" t="s">
-        <v>1385</v>
       </c>
       <c r="C413" t="s">
         <v>14</v>
@@ -21558,10 +21558,10 @@
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
+        <v>1385</v>
+      </c>
+      <c r="B414" t="s">
         <v>1386</v>
-      </c>
-      <c r="B414" t="s">
-        <v>1387</v>
       </c>
       <c r="C414" t="s">
         <v>13</v>
@@ -21596,10 +21596,10 @@
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
+        <v>1387</v>
+      </c>
+      <c r="B415" t="s">
         <v>1388</v>
-      </c>
-      <c r="B415" t="s">
-        <v>1389</v>
       </c>
       <c r="C415" t="s">
         <v>13</v>
@@ -21634,10 +21634,10 @@
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
+        <v>1389</v>
+      </c>
+      <c r="B416" t="s">
         <v>1390</v>
-      </c>
-      <c r="B416" t="s">
-        <v>1391</v>
       </c>
       <c r="C416" t="s">
         <v>13</v>
@@ -21672,10 +21672,10 @@
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
+        <v>1391</v>
+      </c>
+      <c r="B417" t="s">
         <v>1392</v>
-      </c>
-      <c r="B417" t="s">
-        <v>1393</v>
       </c>
       <c r="C417" t="s">
         <v>14</v>
@@ -21710,10 +21710,10 @@
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
+        <v>1393</v>
+      </c>
+      <c r="B418" t="s">
         <v>1394</v>
-      </c>
-      <c r="B418" t="s">
-        <v>1395</v>
       </c>
       <c r="C418" t="s">
         <v>13</v>
@@ -21748,10 +21748,10 @@
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
+        <v>1395</v>
+      </c>
+      <c r="B419" t="s">
         <v>1396</v>
-      </c>
-      <c r="B419" t="s">
-        <v>1397</v>
       </c>
       <c r="C419" t="s">
         <v>14</v>
@@ -21786,10 +21786,10 @@
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
+        <v>1397</v>
+      </c>
+      <c r="B420" t="s">
         <v>1398</v>
-      </c>
-      <c r="B420" t="s">
-        <v>1399</v>
       </c>
       <c r="C420" t="s">
         <v>13</v>
@@ -21824,10 +21824,10 @@
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B421" t="s">
         <v>1400</v>
-      </c>
-      <c r="B421" t="s">
-        <v>1401</v>
       </c>
       <c r="C421" t="s">
         <v>14</v>
@@ -21862,10 +21862,10 @@
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B422" t="s">
         <v>1402</v>
-      </c>
-      <c r="B422" t="s">
-        <v>1403</v>
       </c>
       <c r="C422" t="s">
         <v>14</v>
@@ -21900,10 +21900,10 @@
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B423" t="s">
         <v>1404</v>
-      </c>
-      <c r="B423" t="s">
-        <v>1405</v>
       </c>
       <c r="C423" t="s">
         <v>14</v>
@@ -21938,10 +21938,10 @@
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B424" t="s">
         <v>1406</v>
-      </c>
-      <c r="B424" t="s">
-        <v>1407</v>
       </c>
       <c r="C424" t="s">
         <v>14</v>
@@ -21976,10 +21976,10 @@
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B425" t="s">
         <v>1408</v>
-      </c>
-      <c r="B425" t="s">
-        <v>1409</v>
       </c>
       <c r="C425" t="s">
         <v>13</v>
@@ -22014,10 +22014,10 @@
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B426" t="s">
         <v>1410</v>
-      </c>
-      <c r="B426" t="s">
-        <v>1411</v>
       </c>
       <c r="C426" t="s">
         <v>13</v>
@@ -22052,22 +22052,22 @@
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B427" t="s">
         <v>1412</v>
       </c>
-      <c r="B427" t="s">
+      <c r="C427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D427" t="s">
+        <v>13</v>
+      </c>
+      <c r="E427" t="s">
         <v>1413</v>
       </c>
-      <c r="C427" t="s">
-        <v>13</v>
-      </c>
-      <c r="D427" t="s">
-        <v>13</v>
-      </c>
-      <c r="E427" t="s">
-        <v>1414</v>
-      </c>
       <c r="F427" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G427">
         <v>9</v>
@@ -22090,10 +22090,10 @@
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B428" t="s">
         <v>1415</v>
-      </c>
-      <c r="B428" t="s">
-        <v>1416</v>
       </c>
       <c r="C428" t="s">
         <v>14</v>
@@ -22128,10 +22128,10 @@
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B429" t="s">
         <v>1417</v>
-      </c>
-      <c r="B429" t="s">
-        <v>1418</v>
       </c>
       <c r="C429" t="s">
         <v>14</v>
@@ -22166,10 +22166,10 @@
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B430" t="s">
         <v>1419</v>
-      </c>
-      <c r="B430" t="s">
-        <v>1420</v>
       </c>
       <c r="C430" t="s">
         <v>13</v>
@@ -22204,10 +22204,10 @@
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B431" t="s">
         <v>1421</v>
-      </c>
-      <c r="B431" t="s">
-        <v>1422</v>
       </c>
       <c r="C431" t="s">
         <v>14</v>
@@ -22242,10 +22242,10 @@
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B432" t="s">
         <v>1423</v>
-      </c>
-      <c r="B432" t="s">
-        <v>1424</v>
       </c>
       <c r="C432" t="s">
         <v>13</v>
@@ -22280,10 +22280,10 @@
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B433" t="s">
         <v>1425</v>
-      </c>
-      <c r="B433" t="s">
-        <v>1426</v>
       </c>
       <c r="C433" t="s">
         <v>13</v>
@@ -22318,10 +22318,10 @@
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B434" t="s">
         <v>1427</v>
-      </c>
-      <c r="B434" t="s">
-        <v>1428</v>
       </c>
       <c r="C434" t="s">
         <v>13</v>
@@ -22356,10 +22356,10 @@
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B435" t="s">
         <v>1429</v>
-      </c>
-      <c r="B435" t="s">
-        <v>1430</v>
       </c>
       <c r="C435" t="s">
         <v>14</v>
@@ -22394,10 +22394,10 @@
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B436" t="s">
         <v>1431</v>
-      </c>
-      <c r="B436" t="s">
-        <v>1432</v>
       </c>
       <c r="C436" t="s">
         <v>13</v>
@@ -22409,7 +22409,7 @@
         <v>124</v>
       </c>
       <c r="F436" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G436">
         <v>11</v>
@@ -22432,10 +22432,10 @@
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B437" t="s">
         <v>1433</v>
-      </c>
-      <c r="B437" t="s">
-        <v>1434</v>
       </c>
       <c r="C437" t="s">
         <v>14</v>
@@ -22470,10 +22470,10 @@
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B438" t="s">
         <v>1435</v>
-      </c>
-      <c r="B438" t="s">
-        <v>1436</v>
       </c>
       <c r="C438" t="s">
         <v>13</v>
@@ -22508,10 +22508,10 @@
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B439" t="s">
         <v>1437</v>
-      </c>
-      <c r="B439" t="s">
-        <v>1438</v>
       </c>
       <c r="C439" t="s">
         <v>14</v>
@@ -22546,19 +22546,19 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B440" t="s">
         <v>1439</v>
       </c>
-      <c r="B440" t="s">
+      <c r="C440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D440" t="s">
+        <v>13</v>
+      </c>
+      <c r="E440" t="s">
         <v>1440</v>
-      </c>
-      <c r="C440" t="s">
-        <v>13</v>
-      </c>
-      <c r="D440" t="s">
-        <v>13</v>
-      </c>
-      <c r="E440" t="s">
-        <v>1441</v>
       </c>
       <c r="F440" t="s">
         <v>82</v>
@@ -22584,10 +22584,10 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B441" t="s">
         <v>1442</v>
-      </c>
-      <c r="B441" t="s">
-        <v>1443</v>
       </c>
       <c r="C441" t="s">
         <v>13</v>
@@ -22622,10 +22622,10 @@
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B442" t="s">
         <v>1444</v>
-      </c>
-      <c r="B442" t="s">
-        <v>1445</v>
       </c>
       <c r="C442" t="s">
         <v>14</v>
@@ -22660,10 +22660,10 @@
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B443" t="s">
         <v>1446</v>
-      </c>
-      <c r="B443" t="s">
-        <v>1447</v>
       </c>
       <c r="C443" t="s">
         <v>14</v>
@@ -22698,10 +22698,10 @@
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B444" t="s">
         <v>1448</v>
-      </c>
-      <c r="B444" t="s">
-        <v>1449</v>
       </c>
       <c r="C444" t="s">
         <v>13</v>
@@ -22736,10 +22736,10 @@
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B445" t="s">
         <v>1450</v>
-      </c>
-      <c r="B445" t="s">
-        <v>1451</v>
       </c>
       <c r="C445" t="s">
         <v>13</v>
@@ -22774,10 +22774,10 @@
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B446" t="s">
         <v>1452</v>
-      </c>
-      <c r="B446" t="s">
-        <v>1453</v>
       </c>
       <c r="C446" t="s">
         <v>14</v>
@@ -22812,10 +22812,10 @@
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B447" t="s">
         <v>1454</v>
-      </c>
-      <c r="B447" t="s">
-        <v>1455</v>
       </c>
       <c r="C447" t="s">
         <v>14</v>
@@ -22850,10 +22850,10 @@
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B448" t="s">
         <v>1456</v>
-      </c>
-      <c r="B448" t="s">
-        <v>1457</v>
       </c>
       <c r="C448" t="s">
         <v>13</v>
@@ -22888,10 +22888,10 @@
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B449" t="s">
         <v>1458</v>
-      </c>
-      <c r="B449" t="s">
-        <v>1459</v>
       </c>
       <c r="C449" t="s">
         <v>13</v>
@@ -22926,10 +22926,10 @@
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B450" t="s">
         <v>1460</v>
-      </c>
-      <c r="B450" t="s">
-        <v>1461</v>
       </c>
       <c r="C450" t="s">
         <v>14</v>
@@ -22964,10 +22964,10 @@
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B451" t="s">
         <v>1462</v>
-      </c>
-      <c r="B451" t="s">
-        <v>1463</v>
       </c>
       <c r="C451" t="s">
         <v>13</v>
@@ -23002,10 +23002,10 @@
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B452" t="s">
         <v>1464</v>
-      </c>
-      <c r="B452" t="s">
-        <v>1465</v>
       </c>
       <c r="C452" t="s">
         <v>13</v>
@@ -23040,10 +23040,10 @@
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B453" t="s">
         <v>1466</v>
-      </c>
-      <c r="B453" t="s">
-        <v>1467</v>
       </c>
       <c r="C453" t="s">
         <v>13</v>
@@ -23078,11 +23078,11 @@
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B454" t="s">
         <v>1468</v>
       </c>
-      <c r="B454" t="s">
-        <v>1469</v>
-      </c>
       <c r="C454" t="s">
         <v>14</v>
       </c>
@@ -23090,7 +23090,7 @@
         <v>14</v>
       </c>
       <c r="E454" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F454" t="s">
         <v>82</v>
@@ -23116,10 +23116,10 @@
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B455" t="s">
         <v>1470</v>
-      </c>
-      <c r="B455" t="s">
-        <v>1471</v>
       </c>
       <c r="C455" t="s">
         <v>13</v>
@@ -23154,10 +23154,10 @@
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B456" t="s">
         <v>1472</v>
-      </c>
-      <c r="B456" t="s">
-        <v>1473</v>
       </c>
       <c r="C456" t="s">
         <v>13</v>
@@ -23192,10 +23192,10 @@
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B457" t="s">
         <v>1474</v>
-      </c>
-      <c r="B457" t="s">
-        <v>1475</v>
       </c>
       <c r="C457" t="s">
         <v>13</v>
@@ -23230,10 +23230,10 @@
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B458" t="s">
         <v>1476</v>
-      </c>
-      <c r="B458" t="s">
-        <v>1477</v>
       </c>
       <c r="C458" t="s">
         <v>14</v>
@@ -23268,10 +23268,10 @@
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B459" t="s">
         <v>1478</v>
-      </c>
-      <c r="B459" t="s">
-        <v>1479</v>
       </c>
       <c r="C459" t="s">
         <v>13</v>
@@ -23306,10 +23306,10 @@
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B460" t="s">
         <v>1480</v>
-      </c>
-      <c r="B460" t="s">
-        <v>1481</v>
       </c>
       <c r="C460" t="s">
         <v>13</v>
@@ -23344,10 +23344,10 @@
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B461" t="s">
         <v>1482</v>
-      </c>
-      <c r="B461" t="s">
-        <v>1483</v>
       </c>
       <c r="C461" t="s">
         <v>14</v>
@@ -23359,7 +23359,7 @@
         <v>57</v>
       </c>
       <c r="F461" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G461">
         <v>8</v>
@@ -23382,10 +23382,10 @@
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B462" t="s">
         <v>1484</v>
-      </c>
-      <c r="B462" t="s">
-        <v>1485</v>
       </c>
       <c r="C462" t="s">
         <v>13</v>
@@ -23420,10 +23420,10 @@
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B463" t="s">
         <v>1486</v>
-      </c>
-      <c r="B463" t="s">
-        <v>1487</v>
       </c>
       <c r="C463" t="s">
         <v>13</v>
@@ -23458,10 +23458,10 @@
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B464" t="s">
         <v>1488</v>
-      </c>
-      <c r="B464" t="s">
-        <v>1489</v>
       </c>
       <c r="C464" t="s">
         <v>13</v>
@@ -23496,10 +23496,10 @@
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B465" t="s">
         <v>1490</v>
-      </c>
-      <c r="B465" t="s">
-        <v>1491</v>
       </c>
       <c r="C465" t="s">
         <v>14</v>
@@ -23534,10 +23534,10 @@
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B466" t="s">
         <v>1492</v>
-      </c>
-      <c r="B466" t="s">
-        <v>1493</v>
       </c>
       <c r="C466" t="s">
         <v>13</v>
@@ -23572,19 +23572,19 @@
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B467" t="s">
         <v>1494</v>
       </c>
-      <c r="B467" t="s">
+      <c r="C467" t="s">
+        <v>14</v>
+      </c>
+      <c r="D467" t="s">
+        <v>13</v>
+      </c>
+      <c r="E467" t="s">
         <v>1495</v>
-      </c>
-      <c r="C467" t="s">
-        <v>14</v>
-      </c>
-      <c r="D467" t="s">
-        <v>13</v>
-      </c>
-      <c r="E467" t="s">
-        <v>1496</v>
       </c>
       <c r="F467" t="s">
         <v>24</v>
@@ -23610,10 +23610,10 @@
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B468" t="s">
         <v>1497</v>
-      </c>
-      <c r="B468" t="s">
-        <v>1498</v>
       </c>
       <c r="C468" t="s">
         <v>13</v>
@@ -23648,10 +23648,10 @@
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B469" t="s">
         <v>1499</v>
-      </c>
-      <c r="B469" t="s">
-        <v>1500</v>
       </c>
       <c r="C469" t="s">
         <v>13</v>
@@ -23686,10 +23686,10 @@
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B470" t="s">
         <v>1501</v>
-      </c>
-      <c r="B470" t="s">
-        <v>1502</v>
       </c>
       <c r="C470" t="s">
         <v>14</v>
@@ -23724,10 +23724,10 @@
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B471" t="s">
         <v>1503</v>
-      </c>
-      <c r="B471" t="s">
-        <v>1504</v>
       </c>
       <c r="C471" t="s">
         <v>14</v>
@@ -23762,10 +23762,10 @@
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B472" t="s">
         <v>1505</v>
-      </c>
-      <c r="B472" t="s">
-        <v>1506</v>
       </c>
       <c r="C472" t="s">
         <v>14</v>
@@ -23800,10 +23800,10 @@
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B473" t="s">
         <v>1507</v>
-      </c>
-      <c r="B473" t="s">
-        <v>1508</v>
       </c>
       <c r="C473" t="s">
         <v>14</v>
@@ -23838,19 +23838,19 @@
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B474" t="s">
         <v>1509</v>
       </c>
-      <c r="B474" t="s">
+      <c r="C474" t="s">
+        <v>14</v>
+      </c>
+      <c r="D474" t="s">
+        <v>13</v>
+      </c>
+      <c r="E474" t="s">
         <v>1510</v>
-      </c>
-      <c r="C474" t="s">
-        <v>14</v>
-      </c>
-      <c r="D474" t="s">
-        <v>13</v>
-      </c>
-      <c r="E474" t="s">
-        <v>1511</v>
       </c>
       <c r="F474" t="s">
         <v>24</v>
@@ -23876,10 +23876,10 @@
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B475" t="s">
         <v>1512</v>
-      </c>
-      <c r="B475" t="s">
-        <v>1513</v>
       </c>
       <c r="C475" t="s">
         <v>13</v>
@@ -23914,10 +23914,10 @@
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B476" t="s">
         <v>1514</v>
-      </c>
-      <c r="B476" t="s">
-        <v>1515</v>
       </c>
       <c r="C476" t="s">
         <v>13</v>
@@ -23952,10 +23952,10 @@
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B477" t="s">
         <v>1516</v>
-      </c>
-      <c r="B477" t="s">
-        <v>1517</v>
       </c>
       <c r="C477" t="s">
         <v>14</v>
@@ -23990,10 +23990,10 @@
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B478" t="s">
         <v>1518</v>
-      </c>
-      <c r="B478" t="s">
-        <v>1519</v>
       </c>
       <c r="C478" t="s">
         <v>14</v>
@@ -24028,10 +24028,10 @@
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B479" t="s">
         <v>1520</v>
-      </c>
-      <c r="B479" t="s">
-        <v>1521</v>
       </c>
       <c r="C479" t="s">
         <v>14</v>
@@ -24066,10 +24066,10 @@
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B480" t="s">
         <v>1522</v>
-      </c>
-      <c r="B480" t="s">
-        <v>1523</v>
       </c>
       <c r="C480" t="s">
         <v>14</v>
@@ -24104,10 +24104,10 @@
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B481" t="s">
         <v>1524</v>
-      </c>
-      <c r="B481" t="s">
-        <v>1525</v>
       </c>
       <c r="C481" t="s">
         <v>13</v>
@@ -24142,10 +24142,10 @@
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B482" t="s">
         <v>1526</v>
-      </c>
-      <c r="B482" t="s">
-        <v>1527</v>
       </c>
       <c r="C482" t="s">
         <v>13</v>
@@ -24180,10 +24180,10 @@
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B483" t="s">
         <v>1528</v>
-      </c>
-      <c r="B483" t="s">
-        <v>1529</v>
       </c>
       <c r="C483" t="s">
         <v>13</v>
@@ -24218,10 +24218,10 @@
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B484" t="s">
         <v>1530</v>
-      </c>
-      <c r="B484" t="s">
-        <v>1531</v>
       </c>
       <c r="C484" t="s">
         <v>13</v>
@@ -24256,10 +24256,10 @@
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B485" t="s">
         <v>1532</v>
-      </c>
-      <c r="B485" t="s">
-        <v>1533</v>
       </c>
       <c r="C485" t="s">
         <v>13</v>
@@ -24294,10 +24294,10 @@
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B486" t="s">
         <v>1534</v>
-      </c>
-      <c r="B486" t="s">
-        <v>1535</v>
       </c>
       <c r="C486" t="s">
         <v>13</v>
@@ -24332,10 +24332,10 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B487" t="s">
         <v>1536</v>
-      </c>
-      <c r="B487" t="s">
-        <v>1537</v>
       </c>
       <c r="C487" t="s">
         <v>14</v>
@@ -24370,10 +24370,10 @@
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B488" t="s">
         <v>1538</v>
-      </c>
-      <c r="B488" t="s">
-        <v>1539</v>
       </c>
       <c r="C488" t="s">
         <v>14</v>
@@ -24408,10 +24408,10 @@
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B489" t="s">
         <v>1540</v>
-      </c>
-      <c r="B489" t="s">
-        <v>1541</v>
       </c>
       <c r="C489" t="s">
         <v>14</v>
@@ -24446,10 +24446,10 @@
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B490" t="s">
         <v>1542</v>
-      </c>
-      <c r="B490" t="s">
-        <v>1543</v>
       </c>
       <c r="C490" t="s">
         <v>13</v>
@@ -24484,10 +24484,10 @@
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B491" t="s">
         <v>1544</v>
-      </c>
-      <c r="B491" t="s">
-        <v>1545</v>
       </c>
       <c r="C491" t="s">
         <v>14</v>
@@ -24522,10 +24522,10 @@
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B492" t="s">
         <v>1546</v>
-      </c>
-      <c r="B492" t="s">
-        <v>1547</v>
       </c>
       <c r="C492" t="s">
         <v>13</v>
@@ -24560,10 +24560,10 @@
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B493" t="s">
         <v>1548</v>
-      </c>
-      <c r="B493" t="s">
-        <v>1549</v>
       </c>
       <c r="C493" t="s">
         <v>14</v>
@@ -24598,10 +24598,10 @@
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B494" t="s">
         <v>1550</v>
-      </c>
-      <c r="B494" t="s">
-        <v>1551</v>
       </c>
       <c r="C494" t="s">
         <v>14</v>
@@ -24636,11 +24636,11 @@
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B495" t="s">
         <v>1552</v>
       </c>
-      <c r="B495" t="s">
-        <v>1553</v>
-      </c>
       <c r="C495" t="s">
         <v>14</v>
       </c>
@@ -24648,7 +24648,7 @@
         <v>13</v>
       </c>
       <c r="E495" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="F495" t="s">
         <v>16</v>
@@ -24674,11 +24674,11 @@
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B496" t="s">
         <v>1554</v>
       </c>
-      <c r="B496" t="s">
-        <v>1555</v>
-      </c>
       <c r="C496" t="s">
         <v>13</v>
       </c>
@@ -24686,7 +24686,7 @@
         <v>13</v>
       </c>
       <c r="E496" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F496" t="s">
         <v>82</v>
@@ -24712,10 +24712,10 @@
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B497" t="s">
         <v>1556</v>
-      </c>
-      <c r="B497" t="s">
-        <v>1557</v>
       </c>
       <c r="C497" t="s">
         <v>13</v>
@@ -24750,10 +24750,10 @@
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B498" t="s">
         <v>1558</v>
-      </c>
-      <c r="B498" t="s">
-        <v>1559</v>
       </c>
       <c r="C498" t="s">
         <v>14</v>
@@ -24788,10 +24788,10 @@
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B499" t="s">
         <v>1560</v>
-      </c>
-      <c r="B499" t="s">
-        <v>1561</v>
       </c>
       <c r="C499" t="s">
         <v>14</v>
@@ -24826,10 +24826,10 @@
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B500" t="s">
         <v>1562</v>
-      </c>
-      <c r="B500" t="s">
-        <v>1563</v>
       </c>
       <c r="C500" t="s">
         <v>13</v>
@@ -24864,10 +24864,10 @@
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B501" t="s">
         <v>1564</v>
-      </c>
-      <c r="B501" t="s">
-        <v>1565</v>
       </c>
       <c r="C501" t="s">
         <v>13</v>
@@ -24902,10 +24902,10 @@
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B502" t="s">
         <v>1566</v>
-      </c>
-      <c r="B502" t="s">
-        <v>1567</v>
       </c>
       <c r="C502" t="s">
         <v>14</v>
@@ -24940,10 +24940,10 @@
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B503" t="s">
         <v>1568</v>
-      </c>
-      <c r="B503" t="s">
-        <v>1569</v>
       </c>
       <c r="C503" t="s">
         <v>14</v>
@@ -24978,10 +24978,10 @@
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B504" t="s">
         <v>1570</v>
-      </c>
-      <c r="B504" t="s">
-        <v>1571</v>
       </c>
       <c r="C504" t="s">
         <v>13</v>
@@ -25016,19 +25016,19 @@
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B505" t="s">
         <v>1572</v>
       </c>
-      <c r="B505" t="s">
+      <c r="C505" t="s">
+        <v>14</v>
+      </c>
+      <c r="D505" t="s">
+        <v>14</v>
+      </c>
+      <c r="E505" t="s">
         <v>1573</v>
-      </c>
-      <c r="C505" t="s">
-        <v>14</v>
-      </c>
-      <c r="D505" t="s">
-        <v>14</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1574</v>
       </c>
       <c r="F505" t="s">
         <v>24</v>
@@ -25054,10 +25054,10 @@
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B506" t="s">
         <v>1575</v>
-      </c>
-      <c r="B506" t="s">
-        <v>1576</v>
       </c>
       <c r="C506" t="s">
         <v>13</v>
@@ -25069,7 +25069,7 @@
         <v>15</v>
       </c>
       <c r="F506" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G506">
         <v>5</v>
@@ -25092,11 +25092,11 @@
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B507" t="s">
         <v>1577</v>
       </c>
-      <c r="B507" t="s">
-        <v>1578</v>
-      </c>
       <c r="C507" t="s">
         <v>14</v>
       </c>
@@ -25104,7 +25104,7 @@
         <v>13</v>
       </c>
       <c r="E507" t="s">
-        <v>1496</v>
+        <v>1495</v>
       </c>
       <c r="F507" t="s">
         <v>24</v>
@@ -25130,10 +25130,10 @@
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B508" t="s">
         <v>1579</v>
-      </c>
-      <c r="B508" t="s">
-        <v>1580</v>
       </c>
       <c r="C508" t="s">
         <v>13</v>
@@ -25168,10 +25168,10 @@
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B509" t="s">
         <v>1581</v>
-      </c>
-      <c r="B509" t="s">
-        <v>1582</v>
       </c>
       <c r="C509" t="s">
         <v>14</v>
@@ -25206,10 +25206,10 @@
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B510" t="s">
         <v>1583</v>
-      </c>
-      <c r="B510" t="s">
-        <v>1584</v>
       </c>
       <c r="C510" t="s">
         <v>14</v>
@@ -25244,10 +25244,10 @@
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B511" t="s">
         <v>1585</v>
-      </c>
-      <c r="B511" t="s">
-        <v>1586</v>
       </c>
       <c r="C511" t="s">
         <v>13</v>
@@ -25282,10 +25282,10 @@
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B512" t="s">
         <v>1587</v>
-      </c>
-      <c r="B512" t="s">
-        <v>1588</v>
       </c>
       <c r="C512" t="s">
         <v>13</v>
@@ -25320,10 +25320,10 @@
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B513" t="s">
         <v>1589</v>
-      </c>
-      <c r="B513" t="s">
-        <v>1590</v>
       </c>
       <c r="C513" t="s">
         <v>13</v>
@@ -25358,10 +25358,10 @@
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
+        <v>1590</v>
+      </c>
+      <c r="B514" t="s">
         <v>1591</v>
-      </c>
-      <c r="B514" t="s">
-        <v>1592</v>
       </c>
       <c r="C514" t="s">
         <v>13</v>
@@ -25396,10 +25396,10 @@
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
+        <v>1592</v>
+      </c>
+      <c r="B515" t="s">
         <v>1593</v>
-      </c>
-      <c r="B515" t="s">
-        <v>1594</v>
       </c>
       <c r="C515" t="s">
         <v>14</v>
@@ -25434,10 +25434,10 @@
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
+        <v>1594</v>
+      </c>
+      <c r="B516" t="s">
         <v>1595</v>
-      </c>
-      <c r="B516" t="s">
-        <v>1596</v>
       </c>
       <c r="C516" t="s">
         <v>14</v>
@@ -25472,11 +25472,11 @@
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
+        <v>1596</v>
+      </c>
+      <c r="B517" t="s">
         <v>1597</v>
       </c>
-      <c r="B517" t="s">
-        <v>1598</v>
-      </c>
       <c r="C517" t="s">
         <v>13</v>
       </c>
@@ -25484,7 +25484,7 @@
         <v>13</v>
       </c>
       <c r="E517" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="F517" t="s">
         <v>82</v>
@@ -25510,10 +25510,10 @@
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
+        <v>1598</v>
+      </c>
+      <c r="B518" t="s">
         <v>1599</v>
-      </c>
-      <c r="B518" t="s">
-        <v>1600</v>
       </c>
       <c r="C518" t="s">
         <v>14</v>
@@ -25548,10 +25548,10 @@
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
+        <v>1600</v>
+      </c>
+      <c r="B519" t="s">
         <v>1601</v>
-      </c>
-      <c r="B519" t="s">
-        <v>1602</v>
       </c>
       <c r="C519" t="s">
         <v>14</v>
@@ -25586,10 +25586,10 @@
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
+        <v>1602</v>
+      </c>
+      <c r="B520" t="s">
         <v>1603</v>
-      </c>
-      <c r="B520" t="s">
-        <v>1604</v>
       </c>
       <c r="C520" t="s">
         <v>13</v>
@@ -25624,10 +25624,10 @@
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
+        <v>1604</v>
+      </c>
+      <c r="B521" t="s">
         <v>1605</v>
-      </c>
-      <c r="B521" t="s">
-        <v>1606</v>
       </c>
       <c r="C521" t="s">
         <v>13</v>
@@ -25662,10 +25662,10 @@
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
+        <v>1606</v>
+      </c>
+      <c r="B522" t="s">
         <v>1607</v>
-      </c>
-      <c r="B522" t="s">
-        <v>1608</v>
       </c>
       <c r="C522" t="s">
         <v>14</v>
@@ -25700,10 +25700,10 @@
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
+        <v>1608</v>
+      </c>
+      <c r="B523" t="s">
         <v>1609</v>
-      </c>
-      <c r="B523" t="s">
-        <v>1610</v>
       </c>
       <c r="C523" t="s">
         <v>13</v>
@@ -25738,10 +25738,10 @@
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
+        <v>1610</v>
+      </c>
+      <c r="B524" t="s">
         <v>1611</v>
-      </c>
-      <c r="B524" t="s">
-        <v>1612</v>
       </c>
       <c r="C524" t="s">
         <v>14</v>
@@ -25776,10 +25776,10 @@
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
+        <v>1612</v>
+      </c>
+      <c r="B525" t="s">
         <v>1613</v>
-      </c>
-      <c r="B525" t="s">
-        <v>1614</v>
       </c>
       <c r="C525" t="s">
         <v>13</v>
@@ -25814,19 +25814,19 @@
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B526" t="s">
         <v>1615</v>
       </c>
-      <c r="B526" t="s">
+      <c r="C526" t="s">
+        <v>13</v>
+      </c>
+      <c r="D526" t="s">
+        <v>13</v>
+      </c>
+      <c r="E526" t="s">
         <v>1616</v>
-      </c>
-      <c r="C526" t="s">
-        <v>13</v>
-      </c>
-      <c r="D526" t="s">
-        <v>13</v>
-      </c>
-      <c r="E526" t="s">
-        <v>1617</v>
       </c>
       <c r="F526" t="s">
         <v>24</v>
@@ -25852,10 +25852,10 @@
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
+        <v>1617</v>
+      </c>
+      <c r="B527" t="s">
         <v>1618</v>
-      </c>
-      <c r="B527" t="s">
-        <v>1619</v>
       </c>
       <c r="C527" t="s">
         <v>14</v>
@@ -25893,7 +25893,7 @@
         <v>72</v>
       </c>
       <c r="B528" t="s">
-        <v>1620</v>
+        <v>1619</v>
       </c>
       <c r="C528" t="s">
         <v>13</v>
@@ -25928,10 +25928,10 @@
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
+        <v>1620</v>
+      </c>
+      <c r="B529" t="s">
         <v>1621</v>
-      </c>
-      <c r="B529" t="s">
-        <v>1622</v>
       </c>
       <c r="C529" t="s">
         <v>13</v>
@@ -25943,7 +25943,7 @@
         <v>428</v>
       </c>
       <c r="F529" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G529">
         <v>7</v>
@@ -25966,10 +25966,10 @@
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
+        <v>1622</v>
+      </c>
+      <c r="B530" t="s">
         <v>1623</v>
-      </c>
-      <c r="B530" t="s">
-        <v>1624</v>
       </c>
       <c r="C530" t="s">
         <v>13</v>
@@ -26004,10 +26004,10 @@
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
+        <v>1624</v>
+      </c>
+      <c r="B531" t="s">
         <v>1625</v>
-      </c>
-      <c r="B531" t="s">
-        <v>1626</v>
       </c>
       <c r="C531" t="s">
         <v>14</v>
@@ -26042,10 +26042,10 @@
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
+        <v>1626</v>
+      </c>
+      <c r="B532" t="s">
         <v>1627</v>
-      </c>
-      <c r="B532" t="s">
-        <v>1628</v>
       </c>
       <c r="C532" t="s">
         <v>13</v>
@@ -26080,10 +26080,10 @@
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
+        <v>1628</v>
+      </c>
+      <c r="B533" t="s">
         <v>1629</v>
-      </c>
-      <c r="B533" t="s">
-        <v>1630</v>
       </c>
       <c r="C533" t="s">
         <v>14</v>
@@ -26118,10 +26118,10 @@
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
+        <v>1630</v>
+      </c>
+      <c r="B534" t="s">
         <v>1631</v>
-      </c>
-      <c r="B534" t="s">
-        <v>1632</v>
       </c>
       <c r="C534" t="s">
         <v>14</v>
@@ -26133,7 +26133,7 @@
         <v>178</v>
       </c>
       <c r="F534" t="s">
-        <v>812</v>
+        <v>1798</v>
       </c>
       <c r="G534">
         <v>8</v>
@@ -26156,10 +26156,10 @@
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
+        <v>1632</v>
+      </c>
+      <c r="B535" t="s">
         <v>1633</v>
-      </c>
-      <c r="B535" t="s">
-        <v>1634</v>
       </c>
       <c r="C535" t="s">
         <v>14</v>
@@ -26194,10 +26194,10 @@
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
+        <v>1634</v>
+      </c>
+      <c r="B536" t="s">
         <v>1635</v>
-      </c>
-      <c r="B536" t="s">
-        <v>1636</v>
       </c>
       <c r="C536" t="s">
         <v>14</v>
@@ -26232,10 +26232,10 @@
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B537" t="s">
         <v>1637</v>
-      </c>
-      <c r="B537" t="s">
-        <v>1638</v>
       </c>
       <c r="C537" t="s">
         <v>13</v>
@@ -26270,10 +26270,10 @@
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
+        <v>1638</v>
+      </c>
+      <c r="B538" t="s">
         <v>1639</v>
-      </c>
-      <c r="B538" t="s">
-        <v>1640</v>
       </c>
       <c r="C538" t="s">
         <v>13</v>
@@ -26308,10 +26308,10 @@
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
+        <v>1640</v>
+      </c>
+      <c r="B539" t="s">
         <v>1641</v>
-      </c>
-      <c r="B539" t="s">
-        <v>1642</v>
       </c>
       <c r="C539" t="s">
         <v>14</v>
@@ -26346,10 +26346,10 @@
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
+        <v>1642</v>
+      </c>
+      <c r="B540" t="s">
         <v>1643</v>
-      </c>
-      <c r="B540" t="s">
-        <v>1644</v>
       </c>
       <c r="C540" t="s">
         <v>14</v>
@@ -26384,10 +26384,10 @@
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B541" t="s">
         <v>1645</v>
-      </c>
-      <c r="B541" t="s">
-        <v>1646</v>
       </c>
       <c r="C541" t="s">
         <v>13</v>
@@ -26422,10 +26422,10 @@
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
+        <v>1646</v>
+      </c>
+      <c r="B542" t="s">
         <v>1647</v>
-      </c>
-      <c r="B542" t="s">
-        <v>1648</v>
       </c>
       <c r="C542" t="s">
         <v>13</v>
@@ -26460,10 +26460,10 @@
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
+        <v>1648</v>
+      </c>
+      <c r="B543" t="s">
         <v>1649</v>
-      </c>
-      <c r="B543" t="s">
-        <v>1650</v>
       </c>
       <c r="C543" t="s">
         <v>14</v>
@@ -26498,10 +26498,10 @@
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
+        <v>1650</v>
+      </c>
+      <c r="B544" t="s">
         <v>1651</v>
-      </c>
-      <c r="B544" t="s">
-        <v>1652</v>
       </c>
       <c r="C544" t="s">
         <v>14</v>
@@ -26536,10 +26536,10 @@
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
+        <v>1652</v>
+      </c>
+      <c r="B545" t="s">
         <v>1653</v>
-      </c>
-      <c r="B545" t="s">
-        <v>1654</v>
       </c>
       <c r="C545" t="s">
         <v>14</v>
@@ -26574,10 +26574,10 @@
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B546" t="s">
         <v>1655</v>
-      </c>
-      <c r="B546" t="s">
-        <v>1656</v>
       </c>
       <c r="C546" t="s">
         <v>14</v>
@@ -26612,10 +26612,10 @@
     </row>
     <row r="547" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A547" s="4" t="s">
+        <v>1656</v>
+      </c>
+      <c r="B547" t="s">
         <v>1657</v>
-      </c>
-      <c r="B547" t="s">
-        <v>1658</v>
       </c>
       <c r="C547" t="s">
         <v>13</v>
@@ -26650,10 +26650,10 @@
     </row>
     <row r="548" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A548" s="4" t="s">
+        <v>1658</v>
+      </c>
+      <c r="B548" t="s">
         <v>1659</v>
-      </c>
-      <c r="B548" t="s">
-        <v>1660</v>
       </c>
       <c r="C548" t="s">
         <v>13</v>
@@ -26688,10 +26688,10 @@
     </row>
     <row r="549" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A549" s="4" t="s">
+        <v>1660</v>
+      </c>
+      <c r="B549" t="s">
         <v>1661</v>
-      </c>
-      <c r="B549" t="s">
-        <v>1662</v>
       </c>
       <c r="C549" t="s">
         <v>14</v>
@@ -26726,10 +26726,10 @@
     </row>
     <row r="550" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A550" s="4" t="s">
+        <v>1662</v>
+      </c>
+      <c r="B550" t="s">
         <v>1663</v>
-      </c>
-      <c r="B550" t="s">
-        <v>1664</v>
       </c>
       <c r="C550" t="s">
         <v>13</v>
@@ -26764,10 +26764,10 @@
     </row>
     <row r="551" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A551" s="4" t="s">
+        <v>1664</v>
+      </c>
+      <c r="B551" t="s">
         <v>1665</v>
-      </c>
-      <c r="B551" t="s">
-        <v>1666</v>
       </c>
       <c r="C551" t="s">
         <v>13</v>
@@ -26802,10 +26802,10 @@
     </row>
     <row r="552" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A552" s="4" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B552" t="s">
         <v>1667</v>
-      </c>
-      <c r="B552" t="s">
-        <v>1668</v>
       </c>
       <c r="C552" t="s">
         <v>13</v>
@@ -26840,10 +26840,10 @@
     </row>
     <row r="553" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A553" s="4" t="s">
+        <v>1668</v>
+      </c>
+      <c r="B553" t="s">
         <v>1669</v>
-      </c>
-      <c r="B553" t="s">
-        <v>1670</v>
       </c>
       <c r="C553" t="s">
         <v>14</v>
@@ -26878,10 +26878,10 @@
     </row>
     <row r="554" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A554" s="4" t="s">
+        <v>1670</v>
+      </c>
+      <c r="B554" t="s">
         <v>1671</v>
-      </c>
-      <c r="B554" t="s">
-        <v>1672</v>
       </c>
       <c r="C554" t="s">
         <v>14</v>
@@ -26916,10 +26916,10 @@
     </row>
     <row r="555" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A555" s="4" t="s">
+        <v>1672</v>
+      </c>
+      <c r="B555" t="s">
         <v>1673</v>
-      </c>
-      <c r="B555" t="s">
-        <v>1674</v>
       </c>
       <c r="C555" t="s">
         <v>13</v>
@@ -26954,10 +26954,10 @@
     </row>
     <row r="556" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A556" s="4" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B556" t="s">
         <v>1675</v>
-      </c>
-      <c r="B556" t="s">
-        <v>1676</v>
       </c>
       <c r="C556" t="s">
         <v>13</v>
@@ -26992,10 +26992,10 @@
     </row>
     <row r="557" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A557" s="4" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B557" t="s">
         <v>1677</v>
-      </c>
-      <c r="B557" t="s">
-        <v>1678</v>
       </c>
       <c r="C557" t="s">
         <v>14</v>
@@ -27030,10 +27030,10 @@
     </row>
     <row r="558" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A558" s="4" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B558" t="s">
         <v>1679</v>
-      </c>
-      <c r="B558" t="s">
-        <v>1680</v>
       </c>
       <c r="C558" t="s">
         <v>13</v>
@@ -27068,10 +27068,10 @@
     </row>
     <row r="559" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A559" s="4" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B559" t="s">
         <v>1681</v>
-      </c>
-      <c r="B559" t="s">
-        <v>1682</v>
       </c>
       <c r="C559" t="s">
         <v>13</v>
@@ -27106,10 +27106,10 @@
     </row>
     <row r="560" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A560" s="4" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B560" t="s">
         <v>1683</v>
-      </c>
-      <c r="B560" t="s">
-        <v>1684</v>
       </c>
       <c r="C560" t="s">
         <v>13</v>
@@ -27144,10 +27144,10 @@
     </row>
     <row r="561" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A561" s="4" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B561" t="s">
         <v>1685</v>
-      </c>
-      <c r="B561" t="s">
-        <v>1686</v>
       </c>
       <c r="C561" t="s">
         <v>14</v>
@@ -27182,10 +27182,10 @@
     </row>
     <row r="562" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A562" s="4" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B562" t="s">
         <v>1687</v>
-      </c>
-      <c r="B562" t="s">
-        <v>1688</v>
       </c>
       <c r="C562" t="s">
         <v>14</v>
@@ -27220,10 +27220,10 @@
     </row>
     <row r="563" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A563" s="4" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B563" t="s">
         <v>1689</v>
-      </c>
-      <c r="B563" t="s">
-        <v>1690</v>
       </c>
       <c r="C563" t="s">
         <v>13</v>
@@ -27258,10 +27258,10 @@
     </row>
     <row r="564" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A564" s="4" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B564" t="s">
         <v>1691</v>
-      </c>
-      <c r="B564" t="s">
-        <v>1692</v>
       </c>
       <c r="C564" t="s">
         <v>14</v>
@@ -27296,10 +27296,10 @@
     </row>
     <row r="565" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A565" s="4" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B565" t="s">
         <v>1693</v>
-      </c>
-      <c r="B565" t="s">
-        <v>1694</v>
       </c>
       <c r="C565" t="s">
         <v>13</v>
@@ -27334,10 +27334,10 @@
     </row>
     <row r="566" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A566" s="4" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B566" t="s">
         <v>1695</v>
-      </c>
-      <c r="B566" t="s">
-        <v>1696</v>
       </c>
       <c r="C566" t="s">
         <v>14</v>
@@ -27372,10 +27372,10 @@
     </row>
     <row r="567" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A567" s="4" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B567" t="s">
         <v>1697</v>
-      </c>
-      <c r="B567" t="s">
-        <v>1698</v>
       </c>
       <c r="C567" t="s">
         <v>14</v>
@@ -27410,10 +27410,10 @@
     </row>
     <row r="568" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A568" s="4" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B568" t="s">
         <v>1699</v>
-      </c>
-      <c r="B568" t="s">
-        <v>1700</v>
       </c>
       <c r="C568" t="s">
         <v>13</v>
@@ -27448,10 +27448,10 @@
     </row>
     <row r="569" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A569" s="4" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B569" t="s">
         <v>1701</v>
-      </c>
-      <c r="B569" t="s">
-        <v>1702</v>
       </c>
       <c r="C569" t="s">
         <v>13</v>
@@ -27486,10 +27486,10 @@
     </row>
     <row r="570" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A570" s="4" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B570" t="s">
         <v>1703</v>
-      </c>
-      <c r="B570" t="s">
-        <v>1704</v>
       </c>
       <c r="C570" t="s">
         <v>14</v>
@@ -27524,10 +27524,10 @@
     </row>
     <row r="571" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A571" s="4" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B571" t="s">
         <v>1705</v>
-      </c>
-      <c r="B571" t="s">
-        <v>1706</v>
       </c>
       <c r="C571" t="s">
         <v>14</v>
@@ -27562,10 +27562,10 @@
     </row>
     <row r="572" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A572" s="4" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B572" t="s">
         <v>1707</v>
-      </c>
-      <c r="B572" t="s">
-        <v>1708</v>
       </c>
       <c r="C572" t="s">
         <v>14</v>
@@ -27600,10 +27600,10 @@
     </row>
     <row r="573" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A573" s="4" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B573" t="s">
         <v>1709</v>
-      </c>
-      <c r="B573" t="s">
-        <v>1710</v>
       </c>
       <c r="C573" t="s">
         <v>14</v>
@@ -27638,10 +27638,10 @@
     </row>
     <row r="574" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A574" s="4" t="s">
+        <v>1710</v>
+      </c>
+      <c r="B574" t="s">
         <v>1711</v>
-      </c>
-      <c r="B574" t="s">
-        <v>1712</v>
       </c>
       <c r="C574" t="s">
         <v>13</v>
@@ -27676,10 +27676,10 @@
     </row>
     <row r="575" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A575" s="4" t="s">
+        <v>1712</v>
+      </c>
+      <c r="B575" t="s">
         <v>1713</v>
-      </c>
-      <c r="B575" t="s">
-        <v>1714</v>
       </c>
       <c r="C575" t="s">
         <v>14</v>
@@ -27714,10 +27714,10 @@
     </row>
     <row r="576" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A576" s="4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B576" t="s">
         <v>1715</v>
-      </c>
-      <c r="B576" t="s">
-        <v>1716</v>
       </c>
       <c r="C576" t="s">
         <v>13</v>
@@ -27752,10 +27752,10 @@
     </row>
     <row r="577" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A577" s="4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="B577" t="s">
         <v>1717</v>
-      </c>
-      <c r="B577" t="s">
-        <v>1718</v>
       </c>
       <c r="C577" t="s">
         <v>13</v>
@@ -27790,10 +27790,10 @@
     </row>
     <row r="578" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A578" s="4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="B578" t="s">
         <v>1719</v>
-      </c>
-      <c r="B578" t="s">
-        <v>1720</v>
       </c>
       <c r="C578" t="s">
         <v>14</v>
@@ -27828,10 +27828,10 @@
     </row>
     <row r="579" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A579" s="4" t="s">
+        <v>1720</v>
+      </c>
+      <c r="B579" t="s">
         <v>1721</v>
-      </c>
-      <c r="B579" t="s">
-        <v>1722</v>
       </c>
       <c r="C579" t="s">
         <v>13</v>
@@ -27866,10 +27866,10 @@
     </row>
     <row r="580" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A580" s="4" t="s">
+        <v>1722</v>
+      </c>
+      <c r="B580" t="s">
         <v>1723</v>
-      </c>
-      <c r="B580" t="s">
-        <v>1724</v>
       </c>
       <c r="C580" t="s">
         <v>14</v>
@@ -27904,10 +27904,10 @@
     </row>
     <row r="581" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A581" s="4" t="s">
+        <v>1724</v>
+      </c>
+      <c r="B581" t="s">
         <v>1725</v>
-      </c>
-      <c r="B581" t="s">
-        <v>1726</v>
       </c>
       <c r="C581" t="s">
         <v>14</v>
@@ -27942,10 +27942,10 @@
     </row>
     <row r="582" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A582" s="4" t="s">
+        <v>1726</v>
+      </c>
+      <c r="B582" t="s">
         <v>1727</v>
-      </c>
-      <c r="B582" t="s">
-        <v>1728</v>
       </c>
       <c r="C582" t="s">
         <v>14</v>
@@ -27980,10 +27980,10 @@
     </row>
     <row r="583" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A583" s="4" t="s">
+        <v>1728</v>
+      </c>
+      <c r="B583" t="s">
         <v>1729</v>
-      </c>
-      <c r="B583" t="s">
-        <v>1730</v>
       </c>
       <c r="C583" t="s">
         <v>14</v>
@@ -28018,19 +28018,19 @@
     </row>
     <row r="584" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A584" s="4" t="s">
+        <v>1730</v>
+      </c>
+      <c r="B584" t="s">
         <v>1731</v>
       </c>
-      <c r="B584" t="s">
+      <c r="C584" t="s">
+        <v>14</v>
+      </c>
+      <c r="D584" t="s">
+        <v>14</v>
+      </c>
+      <c r="E584" t="s">
         <v>1732</v>
-      </c>
-      <c r="C584" t="s">
-        <v>14</v>
-      </c>
-      <c r="D584" t="s">
-        <v>14</v>
-      </c>
-      <c r="E584" t="s">
-        <v>1733</v>
       </c>
       <c r="F584" t="s">
         <v>24</v>
@@ -28056,10 +28056,10 @@
     </row>
     <row r="585" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A585" s="4" t="s">
+        <v>1733</v>
+      </c>
+      <c r="B585" t="s">
         <v>1734</v>
-      </c>
-      <c r="B585" t="s">
-        <v>1735</v>
       </c>
       <c r="C585" t="s">
         <v>14</v>
@@ -28094,10 +28094,10 @@
     </row>
     <row r="586" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A586" s="4" t="s">
+        <v>1735</v>
+      </c>
+      <c r="B586" t="s">
         <v>1736</v>
-      </c>
-      <c r="B586" t="s">
-        <v>1737</v>
       </c>
       <c r="C586" t="s">
         <v>13</v>
@@ -28132,10 +28132,10 @@
     </row>
     <row r="587" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A587" s="4" t="s">
+        <v>1737</v>
+      </c>
+      <c r="B587" t="s">
         <v>1738</v>
-      </c>
-      <c r="B587" t="s">
-        <v>1739</v>
       </c>
       <c r="C587" t="s">
         <v>13</v>
@@ -28170,10 +28170,10 @@
     </row>
     <row r="588" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A588" s="4" t="s">
+        <v>1739</v>
+      </c>
+      <c r="B588" t="s">
         <v>1740</v>
-      </c>
-      <c r="B588" t="s">
-        <v>1741</v>
       </c>
       <c r="C588" t="s">
         <v>13</v>
@@ -28208,10 +28208,10 @@
     </row>
     <row r="589" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A589" s="4" t="s">
+        <v>1741</v>
+      </c>
+      <c r="B589" t="s">
         <v>1742</v>
-      </c>
-      <c r="B589" t="s">
-        <v>1743</v>
       </c>
       <c r="C589" t="s">
         <v>13</v>
@@ -28246,10 +28246,10 @@
     </row>
     <row r="590" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A590" s="4" t="s">
+        <v>1743</v>
+      </c>
+      <c r="B590" t="s">
         <v>1744</v>
-      </c>
-      <c r="B590" t="s">
-        <v>1745</v>
       </c>
       <c r="C590" t="s">
         <v>13</v>
@@ -28284,10 +28284,10 @@
     </row>
     <row r="591" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A591" s="4" t="s">
+        <v>1745</v>
+      </c>
+      <c r="B591" t="s">
         <v>1746</v>
-      </c>
-      <c r="B591" t="s">
-        <v>1747</v>
       </c>
       <c r="C591" t="s">
         <v>13</v>
@@ -28322,10 +28322,10 @@
     </row>
     <row r="592" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A592" s="4" t="s">
+        <v>1747</v>
+      </c>
+      <c r="B592" t="s">
         <v>1748</v>
-      </c>
-      <c r="B592" t="s">
-        <v>1749</v>
       </c>
       <c r="C592" t="s">
         <v>13</v>
@@ -28360,19 +28360,19 @@
     </row>
     <row r="593" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A593" s="4" t="s">
+        <v>1749</v>
+      </c>
+      <c r="B593" t="s">
         <v>1750</v>
       </c>
-      <c r="B593" t="s">
+      <c r="C593" t="s">
+        <v>13</v>
+      </c>
+      <c r="D593" t="s">
+        <v>14</v>
+      </c>
+      <c r="E593" t="s">
         <v>1751</v>
-      </c>
-      <c r="C593" t="s">
-        <v>13</v>
-      </c>
-      <c r="D593" t="s">
-        <v>14</v>
-      </c>
-      <c r="E593" t="s">
-        <v>1752</v>
       </c>
       <c r="F593" t="s">
         <v>24</v>
@@ -28398,10 +28398,10 @@
     </row>
     <row r="594" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A594" s="4" t="s">
+        <v>1752</v>
+      </c>
+      <c r="B594" t="s">
         <v>1753</v>
-      </c>
-      <c r="B594" t="s">
-        <v>1754</v>
       </c>
       <c r="C594" t="s">
         <v>13</v>
@@ -28436,10 +28436,10 @@
     </row>
     <row r="595" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A595" s="4" t="s">
+        <v>1754</v>
+      </c>
+      <c r="B595" t="s">
         <v>1755</v>
-      </c>
-      <c r="B595" t="s">
-        <v>1756</v>
       </c>
       <c r="C595" t="s">
         <v>13</v>
@@ -28474,10 +28474,10 @@
     </row>
     <row r="596" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A596" s="4" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B596" t="s">
         <v>1757</v>
-      </c>
-      <c r="B596" t="s">
-        <v>1758</v>
       </c>
       <c r="C596" t="s">
         <v>13</v>
@@ -28512,10 +28512,10 @@
     </row>
     <row r="597" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A597" s="4" t="s">
+        <v>1758</v>
+      </c>
+      <c r="B597" t="s">
         <v>1759</v>
-      </c>
-      <c r="B597" t="s">
-        <v>1760</v>
       </c>
       <c r="C597" t="s">
         <v>14</v>
@@ -28550,10 +28550,10 @@
     </row>
     <row r="598" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A598" s="4" t="s">
+        <v>1760</v>
+      </c>
+      <c r="B598" t="s">
         <v>1761</v>
-      </c>
-      <c r="B598" t="s">
-        <v>1762</v>
       </c>
       <c r="C598" t="s">
         <v>14</v>
@@ -28588,10 +28588,10 @@
     </row>
     <row r="599" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A599" s="4" t="s">
+        <v>1762</v>
+      </c>
+      <c r="B599" t="s">
         <v>1763</v>
-      </c>
-      <c r="B599" t="s">
-        <v>1764</v>
       </c>
       <c r="C599" t="s">
         <v>14</v>
@@ -28626,10 +28626,10 @@
     </row>
     <row r="600" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A600" s="4" t="s">
+        <v>1764</v>
+      </c>
+      <c r="B600" t="s">
         <v>1765</v>
-      </c>
-      <c r="B600" t="s">
-        <v>1766</v>
       </c>
       <c r="C600" t="s">
         <v>13</v>
@@ -28664,10 +28664,10 @@
     </row>
     <row r="601" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A601" s="4" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B601" t="s">
         <v>1767</v>
-      </c>
-      <c r="B601" t="s">
-        <v>1768</v>
       </c>
       <c r="C601" t="s">
         <v>14</v>
@@ -28702,10 +28702,10 @@
     </row>
     <row r="602" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A602" s="4" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B602" t="s">
         <v>1769</v>
-      </c>
-      <c r="B602" t="s">
-        <v>1770</v>
       </c>
       <c r="C602" t="s">
         <v>14</v>
@@ -28740,10 +28740,10 @@
     </row>
     <row r="603" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A603" s="4" t="s">
+        <v>1770</v>
+      </c>
+      <c r="B603" t="s">
         <v>1771</v>
-      </c>
-      <c r="B603" t="s">
-        <v>1772</v>
       </c>
       <c r="C603" t="s">
         <v>14</v>
@@ -28778,10 +28778,10 @@
     </row>
     <row r="604" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A604" s="4" t="s">
+        <v>1772</v>
+      </c>
+      <c r="B604" t="s">
         <v>1773</v>
-      </c>
-      <c r="B604" t="s">
-        <v>1774</v>
       </c>
       <c r="C604" t="s">
         <v>13</v>
@@ -28816,10 +28816,10 @@
     </row>
     <row r="605" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A605" s="4" t="s">
+        <v>1774</v>
+      </c>
+      <c r="B605" t="s">
         <v>1775</v>
-      </c>
-      <c r="B605" t="s">
-        <v>1776</v>
       </c>
       <c r="C605" t="s">
         <v>14</v>
@@ -28854,10 +28854,10 @@
     </row>
     <row r="606" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A606" s="4" t="s">
+        <v>1776</v>
+      </c>
+      <c r="B606" t="s">
         <v>1777</v>
-      </c>
-      <c r="B606" t="s">
-        <v>1778</v>
       </c>
       <c r="C606" t="s">
         <v>13</v>
@@ -28892,10 +28892,10 @@
     </row>
     <row r="607" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A607" s="4" t="s">
+        <v>1778</v>
+      </c>
+      <c r="B607" t="s">
         <v>1779</v>
-      </c>
-      <c r="B607" t="s">
-        <v>1780</v>
       </c>
       <c r="C607" t="s">
         <v>13</v>
@@ -28930,10 +28930,10 @@
     </row>
     <row r="608" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A608" s="4" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B608" t="s">
         <v>1781</v>
-      </c>
-      <c r="B608" t="s">
-        <v>1782</v>
       </c>
       <c r="C608" t="s">
         <v>13</v>
@@ -28968,10 +28968,10 @@
     </row>
     <row r="609" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A609" s="4" t="s">
+        <v>1782</v>
+      </c>
+      <c r="B609" t="s">
         <v>1783</v>
-      </c>
-      <c r="B609" t="s">
-        <v>1784</v>
       </c>
       <c r="C609" t="s">
         <v>13</v>
@@ -29006,10 +29006,10 @@
     </row>
     <row r="610" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A610" s="4" t="s">
+        <v>1784</v>
+      </c>
+      <c r="B610" t="s">
         <v>1785</v>
-      </c>
-      <c r="B610" t="s">
-        <v>1786</v>
       </c>
       <c r="C610" t="s">
         <v>14</v>
@@ -29044,10 +29044,10 @@
     </row>
     <row r="611" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A611" s="4" t="s">
+        <v>1786</v>
+      </c>
+      <c r="B611" t="s">
         <v>1787</v>
-      </c>
-      <c r="B611" t="s">
-        <v>1788</v>
       </c>
       <c r="C611" t="s">
         <v>13</v>
@@ -29082,10 +29082,10 @@
     </row>
     <row r="612" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A612" s="4" t="s">
+        <v>1788</v>
+      </c>
+      <c r="B612" t="s">
         <v>1789</v>
-      </c>
-      <c r="B612" t="s">
-        <v>1790</v>
       </c>
       <c r="C612" t="s">
         <v>13</v>
@@ -29120,10 +29120,10 @@
     </row>
     <row r="613" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A613" s="4" t="s">
+        <v>1790</v>
+      </c>
+      <c r="B613" t="s">
         <v>1791</v>
-      </c>
-      <c r="B613" t="s">
-        <v>1792</v>
       </c>
       <c r="C613" t="s">
         <v>14</v>
@@ -29158,10 +29158,10 @@
     </row>
     <row r="614" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A614" s="4" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B614" t="s">
         <v>1793</v>
-      </c>
-      <c r="B614" t="s">
-        <v>1794</v>
       </c>
       <c r="C614" t="s">
         <v>13</v>
@@ -29196,10 +29196,10 @@
     </row>
     <row r="615" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A615" s="4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B615" t="s">
         <v>1795</v>
-      </c>
-      <c r="B615" t="s">
-        <v>1796</v>
       </c>
       <c r="C615" t="s">
         <v>14</v>
@@ -29234,10 +29234,10 @@
     </row>
     <row r="616" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A616" s="4" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B616" t="s">
         <v>1797</v>
-      </c>
-      <c r="B616" t="s">
-        <v>1798</v>
       </c>
       <c r="C616" t="s">
         <v>14</v>
